--- a/bot/datos/Jefes 2017-2.xlsx
+++ b/bot/datos/Jefes 2017-2.xlsx
@@ -4650,7 +4650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F498B-AB9E-409B-886F-760EBABE5D80}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>

--- a/bot/datos/Jefes 2017-2.xlsx
+++ b/bot/datos/Jefes 2017-2.xlsx
@@ -4650,8 +4650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F498B-AB9E-409B-886F-760EBABE5D80}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/bot/datos/Jefes 2017-2.xlsx
+++ b/bot/datos/Jefes 2017-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="11832" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="8592" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="2" r:id="rId1"/>

--- a/bot/datos/Jefes 2017-2.xlsx
+++ b/bot/datos/Jefes 2017-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="8592" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="2" r:id="rId1"/>
@@ -1735,9 +1735,9 @@
   </sheetPr>
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+      <selection pane="topRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4650,7 +4650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F498B-AB9E-409B-886F-760EBABE5D80}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>

--- a/bot/datos/Jefes 2017-2.xlsx
+++ b/bot/datos/Jefes 2017-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="8595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="414">
   <si>
     <t>Nombre</t>
   </si>
@@ -1238,6 +1238,42 @@
   </si>
   <si>
     <t>Rodrigo M</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Billikopf</t>
+  </si>
+  <si>
+    <t>Samuel Billikopf</t>
+  </si>
+  <si>
+    <t>Samuel B</t>
+  </si>
+  <si>
+    <t>Rosario</t>
+  </si>
+  <si>
+    <t>Diez</t>
+  </si>
+  <si>
+    <t>Hermanos Cabott 6671</t>
+  </si>
+  <si>
+    <t>rdiezperry@gmail.com</t>
+  </si>
+  <si>
+    <t>samuelbillikopfmujica@gmail.com</t>
+  </si>
+  <si>
+    <t>Paul B</t>
+  </si>
+  <si>
+    <t>Cami De La Sotta</t>
+  </si>
+  <si>
+    <t>Cami De Ma Sotta</t>
   </si>
 </sst>
 </file>
@@ -1293,16 +1329,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1347,23 +1383,28 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="1" builtinId="26" customBuiltin="1"/>
@@ -1396,8 +1437,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A1:J70" totalsRowShown="0">
-  <autoFilter ref="A1:J70" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A1:J72" totalsRowShown="0">
+  <autoFilter ref="A1:J72" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A2:J69">
     <sortCondition ref="B1:B69"/>
   </sortState>
@@ -1418,8 +1459,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{169E47ED-C1FF-49F2-86BF-3D15DF3F7F76}" name="Tabla1" displayName="Tabla1" ref="A1:D69" totalsRowShown="0">
-  <autoFilter ref="A1:D69" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{169E47ED-C1FF-49F2-86BF-3D15DF3F7F76}" name="Tabla1" displayName="Tabla1" ref="A1:D70" totalsRowShown="0">
+  <autoFilter ref="A1:D70" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
   <sortState ref="A2:B69">
     <sortCondition ref="A1:A69"/>
   </sortState>
@@ -1733,2246 +1774,2301 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J12" sqref="J12"/>
+      <selection pane="topRight" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="31.6640625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="10" width="31.7109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="4">
         <v>56982328250</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="4">
         <v>56954219968</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="4">
         <v>56976237859</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="4">
         <v>56962094749</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="4">
         <v>56993333225</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="4">
         <v>56955324629</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="4">
         <v>56963033603</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>56982328250</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="4">
         <v>56982328251</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="4">
         <v>56968348679</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="4">
         <v>56944346775</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="4">
         <v>56995346870</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="4">
         <v>56963061299</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="4">
         <v>56979987750</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="G16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="4">
         <v>56974474437</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="G17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="4">
         <v>56967289638</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="4">
         <v>56967898535</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="4">
         <v>56998222891</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="4">
         <v>56991889995</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="4">
         <v>56983708702</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="4">
         <v>56996324787</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="G23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="4">
         <v>56958589916</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="4">
         <v>56995483434</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="4">
         <v>56997550244</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="4">
         <v>56982978895</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="4">
         <v>56986194003</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="G28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="4">
         <v>56965542496</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="4">
         <v>56979579233</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="G30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="4">
         <v>56986351953</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="G31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="4">
         <v>56982958975</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="4">
         <v>56965951459</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="4">
         <v>56979891544</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="G34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="4">
         <v>56995952212</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="4">
         <v>56963124612</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="G36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="4">
         <v>56966477967</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="G37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="4">
         <v>56988587944</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="3">
+      <c r="G38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="4">
         <v>56977684576</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="3">
+      <c r="G39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="4">
         <v>56978785698</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="3">
+      <c r="G40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="4">
         <v>56979878976</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="4">
         <v>56978189115</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="4">
         <v>56971837517</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="4">
         <v>56954243532</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J43" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="4">
         <v>56975684552</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="4">
         <v>56993024442</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="G46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" s="4">
         <v>56998246537</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="4">
         <v>56952304675</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="4">
         <v>56978647106</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="4">
         <v>56987143347</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H50" s="3">
+      <c r="G50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" s="4">
         <v>56984695829</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H51" s="3">
+      <c r="G51" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="4">
         <v>56968320616</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="4">
         <v>56991997991</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H53" s="3">
+      <c r="G53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" s="4">
         <v>56974529859</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="4">
         <v>56987217393</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H55" s="3">
+      <c r="G55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" s="4">
         <v>56981207671</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H56" s="3">
+      <c r="G56" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" s="4">
         <v>56995408498</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" s="4">
         <v>56956481962</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I57" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="4">
         <v>56979980568</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="I58" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" s="4">
         <v>56998263560</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="G60" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60" s="4">
         <v>56942723186</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I60" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="G61" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" s="4">
         <v>56996310424</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I61" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H62" s="4">
         <v>56974397201</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I62" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" s="3">
+      <c r="G63" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" s="4">
         <v>56964829508</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I63" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H64" s="3">
+      <c r="G64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" s="4">
         <v>56979769748</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I64" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H65" s="3">
+      <c r="G65" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="4">
         <v>56999699652</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I65" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="J65" s="5" t="s">
+      <c r="J65" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66" s="4">
         <v>56957230044</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="I66" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H67" s="3">
+      <c r="G67" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" s="4">
         <v>56966640363</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I67" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H68" s="3">
+      <c r="G68" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" s="4">
         <v>56957850035</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="I68" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H69" s="3">
+      <c r="G69" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" s="4">
         <v>56973979384</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="I69" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H70" s="3">
+      <c r="G70" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H70" s="4">
         <v>56994178481</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="I70" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="J70" s="5" t="s">
+      <c r="J70" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" s="3">
+        <v>56977051605</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H72" s="3">
+        <v>56997267212</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="J72" s="8" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4046,10 +4142,12 @@
     <hyperlink ref="I45" r:id="rId66" xr:uid="{0A004863-82D4-40B8-AB2E-353111D044DE}"/>
     <hyperlink ref="I8" r:id="rId67" xr:uid="{B7F8F59B-CB70-4E85-A28C-B0964AC628C2}"/>
     <hyperlink ref="I70" r:id="rId68" xr:uid="{4F5BCC2B-BBB3-4170-B055-3109A3459EA9}"/>
+    <hyperlink ref="I72" r:id="rId69" xr:uid="{0EE90BAF-5ECE-4595-BE2A-FC35C76F4B08}"/>
+    <hyperlink ref="I71" r:id="rId70" xr:uid="{013F2504-5180-4CC4-865E-A16B6C058759}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId69"/>
+    <tablePart r:id="rId71"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4058,584 +4156,586 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A96"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>Personas!A2&amp; " " &amp; Personas!B2</f>
         <v>Amalia Abogabir</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>Personas!A3&amp; " " &amp; Personas!B3</f>
         <v>Maida Andrews</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>Personas!A4&amp; " " &amp; Personas!B4</f>
         <v>Gabriel Araneda</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>Personas!A5&amp; " " &amp; Personas!B5</f>
         <v>Martin Araos</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Personas!A6&amp; " " &amp; Personas!B6</f>
         <v>Javi Bernaus</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Personas!A7&amp; " " &amp; Personas!B7</f>
         <v>Paul Brenner</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Personas!A8&amp; " " &amp; Personas!B8</f>
         <v>Alvaro Caeviedes</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>Personas!A9&amp; " " &amp; Personas!B9</f>
         <v>Ignacio Castañeda</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>Personas!A10&amp; " " &amp; Personas!B10</f>
         <v>Majo Castañeda</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>Personas!A11&amp; " " &amp; Personas!B11</f>
         <v>Vicky Chaparro</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>Personas!A12&amp; " " &amp; Personas!B12</f>
         <v>Antonia Cisternas</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>Personas!A13&amp; " " &amp; Personas!B13</f>
         <v>Josefa Covarrubias</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>Personas!A14&amp; " " &amp; Personas!B14</f>
         <v>Florencia Croxatto</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>Personas!A15&amp; " " &amp; Personas!B15</f>
         <v>Joaquin Daly</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>Personas!A16&amp; " " &amp; Personas!B16</f>
         <v>Dominique Daroch</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>Personas!A17&amp; " " &amp; Personas!B17</f>
         <v>Camila De La Sotta</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>Personas!A18&amp; " " &amp; Personas!B18</f>
         <v>Javi Del Rio</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>Personas!A19&amp; " " &amp; Personas!B19</f>
         <v>Amelia Del Rio</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>Personas!A20&amp; " " &amp; Personas!B20</f>
         <v>Constanza Delfau</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>Personas!A21&amp; " " &amp; Personas!B21</f>
         <v>Pilar Edwards</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>Personas!A22&amp; " " &amp; Personas!B22</f>
         <v>Joaquin Eichholz</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>Personas!A23&amp; " " &amp; Personas!B23</f>
         <v>Maria Jesus Elias</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>Personas!A24&amp; " " &amp; Personas!B24</f>
         <v>Rafael Errazuriz</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>Personas!A25&amp; " " &amp; Personas!B25</f>
         <v>Isidora Fernandez</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>Personas!A26&amp; " " &amp; Personas!B26</f>
         <v>Maria Luisa Fernandez</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>Personas!A27&amp; " " &amp; Personas!B27</f>
         <v>Rodrigo Fernandez</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>Personas!A28&amp; " " &amp; Personas!B28</f>
         <v>Tere Fernandez</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>Personas!A29&amp; " " &amp; Personas!B29</f>
         <v>Diego Figueroa</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>Personas!A30&amp; " " &amp; Personas!B30</f>
         <v>Matias Flores</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>Personas!A31&amp; " " &amp; Personas!B31</f>
         <v>Benjamin Hartmann</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>Personas!A32&amp; " " &amp; Personas!B32</f>
         <v>Mauricio Hernandez</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>Personas!A33&amp; " " &amp; Personas!B33</f>
         <v>Andres Infante</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>Personas!A34&amp; " " &amp; Personas!B34</f>
         <v>Cata Izcue</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>Personas!A35&amp; " " &amp; Personas!B35</f>
         <v>Margarita Joglar</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>Personas!A36&amp; " " &amp; Personas!B36</f>
         <v>Ric Jungk</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>Personas!A37&amp; " " &amp; Personas!B37</f>
         <v>Matias Krumm</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>Personas!A38&amp; " " &amp; Personas!B38</f>
         <v>Juan Diego Lyon</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>Personas!A39&amp; " " &amp; Personas!B39</f>
         <v>Bernardita Mackenney</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>Personas!A40&amp; " " &amp; Personas!B40</f>
         <v>Michella Mascarello</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>Personas!A41&amp; " " &amp; Personas!B41</f>
         <v>Vicente Mayol</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>Personas!A42&amp; " " &amp; Personas!B42</f>
         <v>Jesu Mckay</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>Personas!A43&amp; " " &amp; Personas!B43</f>
         <v>Ignacio Montt</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>Personas!A44&amp; " " &amp; Personas!B44</f>
         <v>Rodrigo Morales</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>Personas!A45&amp; " " &amp; Personas!B45</f>
         <v>Ignacio Morales</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>Personas!A46&amp; " " &amp; Personas!B46</f>
         <v>Josefina Nazer</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>Personas!A47&amp; " " &amp; Personas!B47</f>
         <v>Raimundo Opazo</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>Personas!A48&amp; " " &amp; Personas!B48</f>
         <v>Trinidad Ossa</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>Personas!A49&amp; " " &amp; Personas!B49</f>
         <v>Sofia Ovalle</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>Personas!A50&amp; " " &amp; Personas!B50</f>
         <v>Francesco Pamparana</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>Personas!A51&amp; " " &amp; Personas!B51</f>
         <v>Trinidad Pereira</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>Personas!A53&amp; " " &amp; Personas!B53</f>
         <v>Benjamin Piña</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>Personas!A54&amp; " " &amp; Personas!B54</f>
         <v>Lukas Quense</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>Personas!A55&amp; " " &amp; Personas!B55</f>
         <v>Josefina Quiroga</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>Personas!A56&amp; " " &amp; Personas!B56</f>
         <v>Rafa Quiroga</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>Personas!A57&amp; " " &amp; Personas!B57</f>
         <v>Barbara Rodriguez</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>Personas!A58&amp; " " &amp; Personas!B58</f>
         <v>Fede Schilling</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>Personas!A59&amp; " " &amp; Personas!B59</f>
         <v>Carola Schumann</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>Personas!A60&amp; " " &amp; Personas!B60</f>
         <v>Cata Tondreau</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>Personas!A61&amp; " " &amp; Personas!B61</f>
         <v>Iñaki Tramontana</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>Personas!A62&amp; " " &amp; Personas!B62</f>
         <v>Juan Undurraga</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>Personas!A63&amp; " " &amp; Personas!B63</f>
         <v>Cristobal Valdes</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>Personas!A64&amp; " " &amp; Personas!B64</f>
         <v>Antonia Valencia</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>Personas!A65&amp; " " &amp; Personas!B65</f>
         <v>Jesu Valenzuela</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>Personas!A66&amp; " " &amp; Personas!B66</f>
         <v>Pablo Vial</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>Personas!A67&amp; " " &amp; Personas!B67</f>
         <v>Pedro Vial</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>Personas!A68&amp; " " &amp; Personas!B68</f>
         <v>Paula Villela</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>Personas!A69&amp; " " &amp; Personas!B69</f>
         <v>Gabriel Villela</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>Personas!A70&amp; " " &amp; Personas!B70</f>
         <v>Vicente Opazo</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>Personas!A71&amp; " " &amp; Personas!B71</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+        <v>Samuel Billikopf</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>Personas!A72&amp; " " &amp; Personas!B72</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+        <v>Rosario Diez</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>Personas!A73&amp; " " &amp; Personas!B73</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>Personas!A74&amp; " " &amp; Personas!B74</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>Personas!A75&amp; " " &amp; Personas!B75</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>Personas!A76&amp; " " &amp; Personas!B76</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>Personas!A77&amp; " " &amp; Personas!B77</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>Personas!A78&amp; " " &amp; Personas!B78</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>Personas!A79&amp; " " &amp; Personas!B79</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>Personas!A80&amp; " " &amp; Personas!B80</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>Personas!A81&amp; " " &amp; Personas!B81</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>Personas!A82&amp; " " &amp; Personas!B82</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>Personas!A83&amp; " " &amp; Personas!B83</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>Personas!A84&amp; " " &amp; Personas!B84</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>Personas!A85&amp; " " &amp; Personas!B85</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>Personas!A86&amp; " " &amp; Personas!B86</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>Personas!A87&amp; " " &amp; Personas!B87</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>Personas!A88&amp; " " &amp; Personas!B88</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>Personas!A89&amp; " " &amp; Personas!B89</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>Personas!A90&amp; " " &amp; Personas!B90</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>Personas!A91&amp; " " &amp; Personas!B91</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f>Personas!A92&amp; " " &amp; Personas!B92</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>Personas!A93&amp; " " &amp; Personas!B93</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>Personas!A94&amp; " " &amp; Personas!B94</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>Personas!A95&amp; " " &amp; Personas!B95</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>Personas!A96&amp; " " &amp; Personas!B96</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>Personas!A97&amp; " " &amp; Personas!B97</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>Personas!A98&amp; " " &amp; Personas!B98</f>
         <v xml:space="preserve"> </v>
@@ -4650,647 +4750,670 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F498B-AB9E-409B-886F-760EBABE5D80}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="11.5546875" style="7"/>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="B12" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+      <c r="B53" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
+      <c r="B60" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="str">
-        <f>Personas!A71&amp; " " &amp; Personas!B71</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="str">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="str">
         <f>Personas!A72&amp; " " &amp; Personas!B72</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="str">
+        <v>Rosario Diez</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="str">
         <f>Personas!A73&amp; " " &amp; Personas!B73</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="str">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="str">
         <f>Personas!A74&amp; " " &amp; Personas!B74</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="str">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="str">
         <f>Personas!A75&amp; " " &amp; Personas!B75</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="str">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="str">
         <f>Personas!A76&amp; " " &amp; Personas!B76</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="str">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="str">
         <f>Personas!A77&amp; " " &amp; Personas!B77</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="str">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="str">
         <f>Personas!A78&amp; " " &amp; Personas!B78</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="str">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="str">
         <f>Personas!A79&amp; " " &amp; Personas!B79</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="str">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="str">
         <f>Personas!A80&amp; " " &amp; Personas!B80</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="str">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="str">
         <f>Personas!A81&amp; " " &amp; Personas!B81</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="str">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="str">
         <f>Personas!A82&amp; " " &amp; Personas!B82</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="str">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="str">
         <f>Personas!A83&amp; " " &amp; Personas!B83</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="7" t="str">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="str">
         <f>Personas!A84&amp; " " &amp; Personas!B84</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="7" t="str">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="str">
         <f>Personas!A85&amp; " " &amp; Personas!B85</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="str">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="str">
         <f>Personas!A86&amp; " " &amp; Personas!B86</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="7" t="str">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="str">
         <f>Personas!A87&amp; " " &amp; Personas!B87</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="str">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="str">
         <f>Personas!A88&amp; " " &amp; Personas!B88</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="str">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="str">
         <f>Personas!A89&amp; " " &amp; Personas!B89</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="7" t="str">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="str">
         <f>Personas!A90&amp; " " &amp; Personas!B90</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="str">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="str">
         <f>Personas!A91&amp; " " &amp; Personas!B91</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="str">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="str">
         <f>Personas!A92&amp; " " &amp; Personas!B92</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="7" t="str">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="str">
         <f>Personas!A93&amp; " " &amp; Personas!B93</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="str">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="str">
         <f>Personas!A94&amp; " " &amp; Personas!B94</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="7" t="str">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="str">
         <f>Personas!A95&amp; " " &amp; Personas!B95</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="str">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="str">
         <f>Personas!A96&amp; " " &amp; Personas!B96</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="7" t="str">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="str">
         <f>Personas!A97&amp; " " &amp; Personas!B97</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="str">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="str">
         <f>Personas!A98&amp; " " &amp; Personas!B98</f>
         <v xml:space="preserve"> </v>
       </c>

--- a/bot/datos/Jefes 2017-2.xlsx
+++ b/bot/datos/Jefes 2017-2.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Personas" sheetId="2" r:id="rId1"/>
     <sheet name="Nombre completo" sheetId="3" r:id="rId2"/>
     <sheet name="Apodos" sheetId="4" r:id="rId3"/>
+    <sheet name="Apodos Cobranza" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="433">
   <si>
     <t>Nombre</t>
   </si>
@@ -1274,6 +1275,63 @@
   </si>
   <si>
     <t>Cami De Ma Sotta</t>
+  </si>
+  <si>
+    <t>Anto</t>
+  </si>
+  <si>
+    <t>Benja</t>
+  </si>
+  <si>
+    <t>Cami</t>
+  </si>
+  <si>
+    <t>Caro</t>
+  </si>
+  <si>
+    <t>Coni</t>
+  </si>
+  <si>
+    <t>Domi</t>
+  </si>
+  <si>
+    <t>Flo</t>
+  </si>
+  <si>
+    <t>Nacho</t>
+  </si>
+  <si>
+    <t>Isi</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Magui</t>
+  </si>
+  <si>
+    <t>Mati</t>
+  </si>
+  <si>
+    <t>Miki</t>
+  </si>
+  <si>
+    <t>Pili</t>
+  </si>
+  <si>
+    <t>Rod</t>
+  </si>
+  <si>
+    <t>Sofi</t>
+  </si>
+  <si>
+    <t>Trini</t>
+  </si>
+  <si>
+    <t>Ro</t>
+  </si>
+  <si>
+    <t>Rosario Diez</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1441,7 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1400,11 +1458,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="1" builtinId="26" customBuiltin="1"/>
@@ -1439,8 +1493,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A1:J72" totalsRowShown="0">
   <autoFilter ref="A1:J72" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState ref="A2:J69">
-    <sortCondition ref="B1:B69"/>
+  <sortState ref="A2:J72">
+    <sortCondition ref="B1:B72"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nombre"/>
@@ -1459,8 +1513,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{169E47ED-C1FF-49F2-86BF-3D15DF3F7F76}" name="Tabla1" displayName="Tabla1" ref="A1:D70" totalsRowShown="0">
-  <autoFilter ref="A1:D70" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{169E47ED-C1FF-49F2-86BF-3D15DF3F7F76}" name="Tabla1" displayName="Tabla1" ref="A1:D71" totalsRowShown="0">
+  <autoFilter ref="A1:D71" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
   <sortState ref="A2:B69">
     <sortCondition ref="A1:A69"/>
   </sortState>
@@ -1469,6 +1523,20 @@
     <tableColumn id="2" xr3:uid="{12231FA2-2E32-49FD-9BAC-EB898F75B835}" name="Apodo 1"/>
     <tableColumn id="3" xr3:uid="{AB4A1195-9136-4CAB-8788-DA0BEB1CD29D}" name="Apodo 2"/>
     <tableColumn id="4" xr3:uid="{E5EA54C7-5BAF-44E7-B83E-7C69F9B9DE95}" name="Apodo 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{32F94098-0187-4D1B-B3A9-AA8AEE6BB44A}" name="Tabla13" displayName="Tabla13" ref="A1:B71" totalsRowShown="0">
+  <autoFilter ref="A1:B71" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
+  <sortState ref="A2:B69">
+    <sortCondition ref="A1:A69"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{04A4AF17-77F5-423E-99FA-90547994AD42}" name="Nombre"/>
+    <tableColumn id="2" xr3:uid="{793CE9A1-AFB9-4DF4-A119-2F9E8AEA277E}" name="Apodo 1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1776,9 +1844,9 @@
   </sheetPr>
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A73" sqref="A73"/>
+      <selection pane="topRight" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,77 +2057,68 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>402</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>130</v>
+        <v>403</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="4">
-        <v>56955324629</v>
+        <v>56977051605</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>237</v>
+        <v>410</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>302</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="4">
-        <v>56963033603</v>
+        <v>56955324629</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>235</v>
+        <v>131</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
@@ -2071,21 +2130,21 @@
         <v>108</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="4">
-        <v>56982328250</v>
+        <v>56963033603</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>236</v>
+        <v>303</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
@@ -2100,16 +2159,16 @@
         <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="4">
-        <v>56982328251</v>
+        <v>56982328250</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>236</v>
@@ -2117,106 +2176,106 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="4">
-        <v>56968348679</v>
+        <v>56982328251</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J11" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="4">
-        <v>56944346775</v>
+        <v>56968348679</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>237</v>
+        <v>269</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H13" s="4">
-        <v>56995346870</v>
+        <v>56944346775</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>33</v>
@@ -2225,16 +2284,16 @@
         <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H14" s="4">
-        <v>56963061299</v>
+        <v>56995346870</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>235</v>
@@ -2242,95 +2301,95 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H15" s="4">
-        <v>56979987750</v>
+        <v>56963061299</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>257</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H16" s="4">
-        <v>56974474437</v>
+        <v>56979987750</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>236</v>
+        <v>175</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>166</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H17" s="4">
-        <v>56967289638</v>
+        <v>56974474437</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>236</v>
@@ -2338,33 +2397,33 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H18" s="4">
-        <v>56967898535</v>
+        <v>56967289638</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J18" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2402,19 +2461,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>108</v>
@@ -2423,10 +2482,10 @@
         <v>43</v>
       </c>
       <c r="H20" s="4">
-        <v>56991889995</v>
+        <v>56967898535</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>236</v>
@@ -2434,83 +2493,83 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H21" s="4">
-        <v>56983708702</v>
+        <v>56991889995</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>406</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>407</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>152</v>
+        <v>408</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H22" s="4">
-        <v>56996324787</v>
+        <v>56997267212</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>235</v>
+        <v>409</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>290</v>
+        <v>145</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>292</v>
+        <v>146</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>106</v>
@@ -2519,42 +2578,42 @@
         <v>43</v>
       </c>
       <c r="H23" s="4">
-        <v>56958589916</v>
+        <v>56983708702</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>237</v>
+        <v>147</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>274</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>279</v>
+        <v>152</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24" s="4">
-        <v>56995483434</v>
+        <v>56996324787</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>280</v>
+        <v>153</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>235</v>
@@ -2562,127 +2621,127 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>96</v>
+        <v>290</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H25" s="4">
-        <v>56997550244</v>
+        <v>56958589916</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>235</v>
+        <v>293</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>112</v>
+        <v>279</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H26" s="4">
-        <v>56982978895</v>
+        <v>56995483434</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>115</v>
+        <v>280</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H27" s="4">
-        <v>56986194003</v>
+        <v>56997550244</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H28" s="4">
-        <v>56965542496</v>
+        <v>56982978895</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>237</v>
@@ -2690,74 +2749,77 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H29" s="4">
-        <v>56979579233</v>
+        <v>56986194003</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H30" s="4">
-        <v>56986351953</v>
+        <v>56965542496</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>33</v>
@@ -2765,127 +2827,124 @@
       <c r="E31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="G31" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H31" s="4">
-        <v>56982958975</v>
+        <v>56979579233</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H32" s="4">
-        <v>56965951459</v>
+        <v>56986351953</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H33" s="4">
-        <v>56979891544</v>
+        <v>56982958975</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>273</v>
+        <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>286</v>
+        <v>163</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H34" s="4">
-        <v>56995952212</v>
+        <v>56965951459</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="J34" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>27</v>
@@ -2893,14 +2952,17 @@
       <c r="E35" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F35" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="G35" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H35" s="4">
-        <v>56963124612</v>
+        <v>56979891544</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>237</v>
@@ -2908,63 +2970,60 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>122</v>
+        <v>289</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H36" s="4">
-        <v>56966477967</v>
+        <v>56995952212</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H37" s="4">
-        <v>56988587944</v>
+        <v>56963124612</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>237</v>
@@ -2972,19 +3031,19 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>122</v>
@@ -2993,74 +3052,74 @@
         <v>43</v>
       </c>
       <c r="H38" s="4">
-        <v>56977684576</v>
+        <v>56966477967</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>179</v>
+        <v>55</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H39" s="4">
-        <v>56978785698</v>
+        <v>56988587944</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>287</v>
+        <v>121</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H40" s="4">
-        <v>56979878976</v>
+        <v>56977684576</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>235</v>
@@ -3068,63 +3127,63 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>191</v>
+        <v>49</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H41" s="4">
-        <v>56978189115</v>
+        <v>56978785698</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>124</v>
+        <v>287</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H42" s="4">
-        <v>56971837517</v>
+        <v>56979878976</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>235</v>
@@ -3132,42 +3191,45 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>165</v>
+        <v>28</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H43" s="4">
-        <v>56954243532</v>
+        <v>56978189115</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>235</v>
+        <v>192</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>27</v>
@@ -3176,19 +3238,19 @@
         <v>28</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H44" s="4">
-        <v>56975684552</v>
+        <v>56971837517</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3196,74 +3258,71 @@
         <v>24</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H45" s="4">
-        <v>56993024442</v>
+        <v>56954243532</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>10</v>
+        <v>298</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H46" s="4">
-        <v>56998246537</v>
+        <v>56993024442</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>235</v>
+        <v>299</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>224</v>
+        <v>67</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>27</v>
@@ -3272,59 +3331,62 @@
         <v>28</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H47" s="4">
-        <v>56952304675</v>
+        <v>56975684552</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>240</v>
+        <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>166</v>
+        <v>29</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H48" s="4">
-        <v>56978647106</v>
+        <v>56998246537</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>236</v>
+        <v>181</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>27</v>
@@ -3333,16 +3395,16 @@
         <v>28</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H49" s="4">
-        <v>56987143347</v>
+        <v>56952304675</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>237</v>
@@ -3350,33 +3412,33 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H50" s="4">
-        <v>56984695829</v>
+        <v>56994178481</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J50" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J50" s="6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3385,28 +3447,25 @@
         <v>239</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>296</v>
+        <v>166</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H51" s="4">
-        <v>56968320616</v>
+        <v>56978647106</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="J51" s="6" t="s">
         <v>236</v>
@@ -3414,77 +3473,77 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>265</v>
+        <v>106</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H52" s="4">
-        <v>56991997991</v>
+        <v>56987143347</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="J52" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>272</v>
+        <v>88</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>283</v>
+        <v>111</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>285</v>
+        <v>106</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H53" s="4">
-        <v>56974529859</v>
+        <v>56984695829</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>236</v>
+        <v>168</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>27</v>
@@ -3493,112 +3552,112 @@
         <v>28</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>108</v>
+        <v>296</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H54" s="4">
-        <v>56987217393</v>
+        <v>56968320616</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>237</v>
+        <v>297</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>8</v>
+        <v>249</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>65</v>
+        <v>253</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>108</v>
+        <v>265</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H55" s="4">
-        <v>56981207671</v>
+        <v>56991997991</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>236</v>
+        <v>256</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>65</v>
+        <v>283</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H56" s="4">
-        <v>56995408498</v>
+        <v>56974529859</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="J56" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J56" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H57" s="4">
-        <v>56956481962</v>
+        <v>56987217393</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>217</v>
+        <v>60</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>237</v>
@@ -3606,63 +3665,63 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H58" s="4">
-        <v>56979980568</v>
+        <v>56981207671</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H59" s="4">
-        <v>56998263560</v>
+        <v>56995408498</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>236</v>
@@ -3670,63 +3729,63 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H60" s="4">
-        <v>56942723186</v>
+        <v>56956481962</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H61" s="4">
-        <v>56996310424</v>
+        <v>56979980568</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>237</v>
@@ -3734,31 +3793,31 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H62" s="4">
-        <v>56974397201</v>
+        <v>56998263560</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>236</v>
@@ -3766,45 +3825,45 @@
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H63" s="4">
-        <v>56964829508</v>
+        <v>56942723186</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>47</v>
+        <v>276</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>95</v>
+        <v>277</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>36</v>
@@ -3813,187 +3872,190 @@
         <v>37</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H64" s="4">
-        <v>56979769748</v>
+        <v>56996310424</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>247</v>
+        <v>63</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H65" s="4">
-        <v>56999699652</v>
+        <v>56974397201</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>235</v>
+        <v>170</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H66" s="4">
-        <v>56957230044</v>
+        <v>56964829508</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>223</v>
+        <v>122</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H67" s="4">
-        <v>56966640363</v>
+        <v>56979769748</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>86</v>
+        <v>263</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H68" s="4">
-        <v>56957850035</v>
+        <v>56999699652</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J68" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J68" s="6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H69" s="4">
-        <v>56973979384</v>
+        <v>56957230044</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>27</v>
@@ -4008,142 +4070,148 @@
         <v>43</v>
       </c>
       <c r="H70" s="4">
-        <v>56994178481</v>
+        <v>56966640363</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J70" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>402</v>
+        <v>159</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>403</v>
+        <v>76</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H71" s="3">
-        <v>56977051605</v>
-      </c>
-      <c r="I71" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>235</v>
+      <c r="H71" s="4">
+        <v>56973979384</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>406</v>
+        <v>75</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>408</v>
+        <v>86</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H72" s="3">
-        <v>56997267212</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>237</v>
+      <c r="H72" s="4">
+        <v>56957850035</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I54" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I68" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I55" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I59" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I30" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I32" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I33" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I38" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I42" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I57" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I31" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I72" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I58" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I62" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I32" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I34" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I35" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I40" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I44" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="I3" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="I7" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I64" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I40" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I8" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I67" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I27" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I42" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="I2" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I60" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="I21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I36" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I49" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I22" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="I13" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I69" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="I50" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I37" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I62" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I10" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I63" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I15" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I58" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I44" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I46" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I31" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I27" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I18" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="I28" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I63" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I38" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I52" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I71" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I53" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I65" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I66" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I61" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I47" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I48" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I33" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I29" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I20" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I30" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="I5" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I12" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I14" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I57" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="I66" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I67" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I35" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I13" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I15" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I60" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I69" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I70" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I37" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="I6" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="I56" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I43" r:id="rId52" xr:uid="{BB83720D-7C50-4514-968D-E58CF9DDE6DC}"/>
-    <hyperlink ref="I48" r:id="rId53" xr:uid="{9690E61F-91FC-404C-AF8A-7A0D11AFE11F}"/>
+    <hyperlink ref="I59" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I45" r:id="rId52" xr:uid="{BB83720D-7C50-4514-968D-E58CF9DDE6DC}"/>
+    <hyperlink ref="I51" r:id="rId53" xr:uid="{9690E61F-91FC-404C-AF8A-7A0D11AFE11F}"/>
     <hyperlink ref="I19" r:id="rId54" xr:uid="{3DDB2D4E-48DB-42B4-9F9F-4BE1A526EDA1}"/>
-    <hyperlink ref="I52" r:id="rId55" xr:uid="{09E1EF8A-D979-4D28-B71B-94AAEBDEBA3B}"/>
-    <hyperlink ref="I16" r:id="rId56" xr:uid="{00B51DD3-8C16-4EAF-BA1E-2CBACC1F626E}"/>
-    <hyperlink ref="I17" r:id="rId57" xr:uid="{E9F37C09-2280-4CF0-A246-6F97345B03F6}"/>
-    <hyperlink ref="I65" r:id="rId58" xr:uid="{8973C226-5AE2-4989-8771-CC45E6E2AB9F}"/>
-    <hyperlink ref="I11" r:id="rId59" xr:uid="{859257E4-ABEE-45D1-A18F-F03D155BE629}"/>
+    <hyperlink ref="I55" r:id="rId55" xr:uid="{09E1EF8A-D979-4D28-B71B-94AAEBDEBA3B}"/>
+    <hyperlink ref="I17" r:id="rId56" xr:uid="{00B51DD3-8C16-4EAF-BA1E-2CBACC1F626E}"/>
+    <hyperlink ref="I18" r:id="rId57" xr:uid="{E9F37C09-2280-4CF0-A246-6F97345B03F6}"/>
+    <hyperlink ref="I68" r:id="rId58" xr:uid="{8973C226-5AE2-4989-8771-CC45E6E2AB9F}"/>
+    <hyperlink ref="I12" r:id="rId59" xr:uid="{859257E4-ABEE-45D1-A18F-F03D155BE629}"/>
     <hyperlink ref="I4" r:id="rId60" xr:uid="{0731E947-D61A-4E96-8FD9-2DD60FADF25B}"/>
-    <hyperlink ref="I61" r:id="rId61" xr:uid="{22A2F7B2-17D7-4DEC-93C6-6440DAC6E5DC}"/>
-    <hyperlink ref="I53" r:id="rId62" xr:uid="{1C2E72FF-1A56-4208-8A45-7DD8161B110B}"/>
-    <hyperlink ref="I34" r:id="rId63" xr:uid="{4417FD4A-68A2-4E28-B4D3-8DFF134574ED}"/>
-    <hyperlink ref="I23" r:id="rId64" xr:uid="{12639DA0-62EE-47CA-A01B-40D7286AA0D0}"/>
-    <hyperlink ref="I51" r:id="rId65" xr:uid="{286D8EC8-21B3-46F7-9795-5BB4AE8E2C32}"/>
-    <hyperlink ref="I45" r:id="rId66" xr:uid="{0A004863-82D4-40B8-AB2E-353111D044DE}"/>
-    <hyperlink ref="I8" r:id="rId67" xr:uid="{B7F8F59B-CB70-4E85-A28C-B0964AC628C2}"/>
-    <hyperlink ref="I70" r:id="rId68" xr:uid="{4F5BCC2B-BBB3-4170-B055-3109A3459EA9}"/>
-    <hyperlink ref="I72" r:id="rId69" xr:uid="{0EE90BAF-5ECE-4595-BE2A-FC35C76F4B08}"/>
-    <hyperlink ref="I71" r:id="rId70" xr:uid="{013F2504-5180-4CC4-865E-A16B6C058759}"/>
+    <hyperlink ref="I64" r:id="rId61" xr:uid="{22A2F7B2-17D7-4DEC-93C6-6440DAC6E5DC}"/>
+    <hyperlink ref="I56" r:id="rId62" xr:uid="{1C2E72FF-1A56-4208-8A45-7DD8161B110B}"/>
+    <hyperlink ref="I36" r:id="rId63" xr:uid="{4417FD4A-68A2-4E28-B4D3-8DFF134574ED}"/>
+    <hyperlink ref="I25" r:id="rId64" xr:uid="{12639DA0-62EE-47CA-A01B-40D7286AA0D0}"/>
+    <hyperlink ref="I54" r:id="rId65" xr:uid="{286D8EC8-21B3-46F7-9795-5BB4AE8E2C32}"/>
+    <hyperlink ref="I46" r:id="rId66" xr:uid="{0A004863-82D4-40B8-AB2E-353111D044DE}"/>
+    <hyperlink ref="I9" r:id="rId67" xr:uid="{B7F8F59B-CB70-4E85-A28C-B0964AC628C2}"/>
+    <hyperlink ref="I50" r:id="rId68" xr:uid="{4F5BCC2B-BBB3-4170-B055-3109A3459EA9}"/>
+    <hyperlink ref="I22" r:id="rId69" xr:uid="{0EE90BAF-5ECE-4595-BE2A-FC35C76F4B08}"/>
+    <hyperlink ref="I7" r:id="rId70" xr:uid="{013F2504-5180-4CC4-865E-A16B6C058759}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4157,7 +4225,7 @@
   <dimension ref="A1:A96"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4198,73 +4266,73 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Personas!A7&amp; " " &amp; Personas!B7</f>
-        <v>Paul Brenner</v>
+        <v>Samuel Billikopf</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Personas!A8&amp; " " &amp; Personas!B8</f>
-        <v>Alvaro Caeviedes</v>
+        <v>Paul Brenner</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>Personas!A9&amp; " " &amp; Personas!B9</f>
-        <v>Ignacio Castañeda</v>
+        <v>Alvaro Caeviedes</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>Personas!A10&amp; " " &amp; Personas!B10</f>
-        <v>Majo Castañeda</v>
+        <v>Ignacio Castañeda</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>Personas!A11&amp; " " &amp; Personas!B11</f>
-        <v>Vicky Chaparro</v>
+        <v>Majo Castañeda</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>Personas!A12&amp; " " &amp; Personas!B12</f>
-        <v>Antonia Cisternas</v>
+        <v>Vicky Chaparro</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>Personas!A13&amp; " " &amp; Personas!B13</f>
-        <v>Josefa Covarrubias</v>
+        <v>Antonia Cisternas</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>Personas!A14&amp; " " &amp; Personas!B14</f>
-        <v>Florencia Croxatto</v>
+        <v>Josefa Covarrubias</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>Personas!A15&amp; " " &amp; Personas!B15</f>
-        <v>Joaquin Daly</v>
+        <v>Florencia Croxatto</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>Personas!A16&amp; " " &amp; Personas!B16</f>
-        <v>Dominique Daroch</v>
+        <v>Joaquin Daly</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>Personas!A17&amp; " " &amp; Personas!B17</f>
-        <v>Camila De La Sotta</v>
+        <v>Dominique Daroch</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>Personas!A18&amp; " " &amp; Personas!B18</f>
-        <v>Javi Del Rio</v>
+        <v>Camila De La Sotta</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -4276,313 +4344,313 @@
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>Personas!A20&amp; " " &amp; Personas!B20</f>
-        <v>Constanza Delfau</v>
+        <v>Javi Del Rio</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>Personas!A21&amp; " " &amp; Personas!B21</f>
-        <v>Pilar Edwards</v>
+        <v>Constanza Delfau</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>Personas!A22&amp; " " &amp; Personas!B22</f>
-        <v>Joaquin Eichholz</v>
+        <v>Rosario Diez</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>Personas!A23&amp; " " &amp; Personas!B23</f>
-        <v>Maria Jesus Elias</v>
+        <v>Pilar Edwards</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>Personas!A24&amp; " " &amp; Personas!B24</f>
-        <v>Rafael Errazuriz</v>
+        <v>Joaquin Eichholz</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>Personas!A25&amp; " " &amp; Personas!B25</f>
-        <v>Isidora Fernandez</v>
+        <v>Maria Jesus Elias</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>Personas!A26&amp; " " &amp; Personas!B26</f>
-        <v>Maria Luisa Fernandez</v>
+        <v>Rafael Errazuriz</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>Personas!A27&amp; " " &amp; Personas!B27</f>
-        <v>Rodrigo Fernandez</v>
+        <v>Isidora Fernandez</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>Personas!A28&amp; " " &amp; Personas!B28</f>
-        <v>Tere Fernandez</v>
+        <v>Maria Luisa Fernandez</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>Personas!A29&amp; " " &amp; Personas!B29</f>
-        <v>Diego Figueroa</v>
+        <v>Rodrigo Fernandez</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>Personas!A30&amp; " " &amp; Personas!B30</f>
-        <v>Matias Flores</v>
+        <v>Tere Fernandez</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>Personas!A31&amp; " " &amp; Personas!B31</f>
-        <v>Benjamin Hartmann</v>
+        <v>Diego Figueroa</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>Personas!A32&amp; " " &amp; Personas!B32</f>
-        <v>Mauricio Hernandez</v>
+        <v>Matias Flores</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>Personas!A33&amp; " " &amp; Personas!B33</f>
-        <v>Andres Infante</v>
+        <v>Benjamin Hartmann</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>Personas!A34&amp; " " &amp; Personas!B34</f>
-        <v>Cata Izcue</v>
+        <v>Mauricio Hernandez</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>Personas!A35&amp; " " &amp; Personas!B35</f>
-        <v>Margarita Joglar</v>
+        <v>Andres Infante</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>Personas!A36&amp; " " &amp; Personas!B36</f>
-        <v>Ric Jungk</v>
+        <v>Cata Izcue</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>Personas!A37&amp; " " &amp; Personas!B37</f>
-        <v>Matias Krumm</v>
+        <v>Margarita Joglar</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>Personas!A38&amp; " " &amp; Personas!B38</f>
-        <v>Juan Diego Lyon</v>
+        <v>Ric Jungk</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>Personas!A39&amp; " " &amp; Personas!B39</f>
-        <v>Bernardita Mackenney</v>
+        <v>Matias Krumm</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>Personas!A40&amp; " " &amp; Personas!B40</f>
-        <v>Michella Mascarello</v>
+        <v>Juan Diego Lyon</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>Personas!A41&amp; " " &amp; Personas!B41</f>
-        <v>Vicente Mayol</v>
+        <v>Bernardita Mackenney</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>Personas!A42&amp; " " &amp; Personas!B42</f>
-        <v>Jesu Mckay</v>
+        <v>Michella Mascarello</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>Personas!A43&amp; " " &amp; Personas!B43</f>
-        <v>Ignacio Montt</v>
+        <v>Vicente Mayol</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>Personas!A44&amp; " " &amp; Personas!B44</f>
-        <v>Rodrigo Morales</v>
+        <v>Jesu Mckay</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>Personas!A45&amp; " " &amp; Personas!B45</f>
-        <v>Ignacio Morales</v>
+        <v>Ignacio Montt</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>Personas!A46&amp; " " &amp; Personas!B46</f>
-        <v>Josefina Nazer</v>
+        <v>Ignacio Morales</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>Personas!A47&amp; " " &amp; Personas!B47</f>
-        <v>Raimundo Opazo</v>
+        <v>Rodrigo Morales</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>Personas!A48&amp; " " &amp; Personas!B48</f>
-        <v>Trinidad Ossa</v>
+        <v>Josefina Nazer</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>Personas!A49&amp; " " &amp; Personas!B49</f>
-        <v>Sofia Ovalle</v>
+        <v>Raimundo Opazo</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>Personas!A50&amp; " " &amp; Personas!B50</f>
-        <v>Francesco Pamparana</v>
+        <v>Vicente Opazo</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>Personas!A51&amp; " " &amp; Personas!B51</f>
-        <v>Trinidad Pereira</v>
+        <v>Trinidad Ossa</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>Personas!A53&amp; " " &amp; Personas!B53</f>
-        <v>Benjamin Piña</v>
+        <v>Francesco Pamparana</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>Personas!A54&amp; " " &amp; Personas!B54</f>
-        <v>Lukas Quense</v>
+        <v>Trinidad Pereira</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>Personas!A55&amp; " " &amp; Personas!B55</f>
-        <v>Josefina Quiroga</v>
+        <v>Agustina Pineda</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>Personas!A56&amp; " " &amp; Personas!B56</f>
-        <v>Rafa Quiroga</v>
+        <v>Benjamin Piña</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>Personas!A57&amp; " " &amp; Personas!B57</f>
-        <v>Barbara Rodriguez</v>
+        <v>Lukas Quense</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>Personas!A58&amp; " " &amp; Personas!B58</f>
-        <v>Fede Schilling</v>
+        <v>Josefina Quiroga</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>Personas!A59&amp; " " &amp; Personas!B59</f>
-        <v>Carola Schumann</v>
+        <v>Rafa Quiroga</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>Personas!A60&amp; " " &amp; Personas!B60</f>
-        <v>Cata Tondreau</v>
+        <v>Barbara Rodriguez</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>Personas!A61&amp; " " &amp; Personas!B61</f>
-        <v>Iñaki Tramontana</v>
+        <v>Fede Schilling</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>Personas!A62&amp; " " &amp; Personas!B62</f>
-        <v>Juan Undurraga</v>
+        <v>Carola Schumann</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>Personas!A63&amp; " " &amp; Personas!B63</f>
-        <v>Cristobal Valdes</v>
+        <v>Cata Tondreau</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>Personas!A64&amp; " " &amp; Personas!B64</f>
-        <v>Antonia Valencia</v>
+        <v>Iñaki Tramontana</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>Personas!A65&amp; " " &amp; Personas!B65</f>
-        <v>Jesu Valenzuela</v>
+        <v>Juan Undurraga</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>Personas!A66&amp; " " &amp; Personas!B66</f>
-        <v>Pablo Vial</v>
+        <v>Cristobal Valdes</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>Personas!A67&amp; " " &amp; Personas!B67</f>
-        <v>Pedro Vial</v>
+        <v>Antonia Valencia</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>Personas!A68&amp; " " &amp; Personas!B68</f>
-        <v>Paula Villela</v>
+        <v>Jesu Valenzuela</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>Personas!A69&amp; " " &amp; Personas!B69</f>
-        <v>Gabriel Villela</v>
+        <v>Pablo Vial</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>Personas!A70&amp; " " &amp; Personas!B70</f>
-        <v>Vicente Opazo</v>
+        <v>Pedro Vial</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>Personas!A71&amp; " " &amp; Personas!B71</f>
-        <v>Samuel Billikopf</v>
+        <v>Gabriel Villela</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>Personas!A72&amp; " " &amp; Personas!B72</f>
-        <v>Rosario Diez</v>
+        <v>Paula Villela</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
@@ -4750,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F498B-AB9E-409B-886F-760EBABE5D80}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4842,10 +4910,10 @@
       <c r="A12" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="1" t="s">
         <v>413</v>
       </c>
     </row>
@@ -4902,7 +4970,7 @@
       <c r="B21" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5116,7 +5184,7 @@
       <c r="A53" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="1" t="s">
         <v>411</v>
       </c>
     </row>
@@ -5163,7 +5231,7 @@
       <c r="A60" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5246,19 +5314,18 @@
       <c r="A70" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="1" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="str">
-        <f>Personas!A72&amp; " " &amp; Personas!B72</f>
-        <v>Rosario Diez</v>
-      </c>
-      <c r="B71" s="9" t="s">
+      <c r="A71" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5311,6 +5378,753 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="str">
+        <f>Personas!A81&amp; " " &amp; Personas!B81</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="str">
+        <f>Personas!A82&amp; " " &amp; Personas!B82</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="str">
+        <f>Personas!A83&amp; " " &amp; Personas!B83</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="str">
+        <f>Personas!A84&amp; " " &amp; Personas!B84</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="str">
+        <f>Personas!A85&amp; " " &amp; Personas!B85</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="str">
+        <f>Personas!A86&amp; " " &amp; Personas!B86</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="str">
+        <f>Personas!A87&amp; " " &amp; Personas!B87</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="str">
+        <f>Personas!A88&amp; " " &amp; Personas!B88</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="str">
+        <f>Personas!A89&amp; " " &amp; Personas!B89</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="str">
+        <f>Personas!A90&amp; " " &amp; Personas!B90</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="str">
+        <f>Personas!A91&amp; " " &amp; Personas!B91</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="str">
+        <f>Personas!A92&amp; " " &amp; Personas!B92</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="str">
+        <f>Personas!A93&amp; " " &amp; Personas!B93</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="str">
+        <f>Personas!A94&amp; " " &amp; Personas!B94</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="str">
+        <f>Personas!A95&amp; " " &amp; Personas!B95</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="str">
+        <f>Personas!A96&amp; " " &amp; Personas!B96</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="str">
+        <f>Personas!A97&amp; " " &amp; Personas!B97</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="str">
+        <f>Personas!A98&amp; " " &amp; Personas!B98</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C3DA73-D96C-43A9-AE04-1BEC297F83DB}">
+  <dimension ref="A1:B97"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="str">
+        <f>Personas!A73&amp; " " &amp; Personas!B73</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="str">
+        <f>Personas!A74&amp; " " &amp; Personas!B74</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="str">
+        <f>Personas!A75&amp; " " &amp; Personas!B75</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="str">
+        <f>Personas!A76&amp; " " &amp; Personas!B76</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="str">
+        <f>Personas!A77&amp; " " &amp; Personas!B77</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="str">
+        <f>Personas!A78&amp; " " &amp; Personas!B78</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="str">
+        <f>Personas!A79&amp; " " &amp; Personas!B79</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="str">
+        <f>Personas!A80&amp; " " &amp; Personas!B80</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="str">
         <f>Personas!A81&amp; " " &amp; Personas!B81</f>
         <v xml:space="preserve"> </v>

--- a/bot/datos/Jefes 2017-2.xlsx
+++ b/bot/datos/Jefes 2017-2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="8595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Apodos" sheetId="4" r:id="rId3"/>
     <sheet name="Apodos Cobranza" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="446">
   <si>
     <t>Nombre</t>
   </si>
@@ -938,15 +938,9 @@
     <t>Alvaro</t>
   </si>
   <si>
-    <t>Caeviedes</t>
-  </si>
-  <si>
     <t>Cerro El Paico 9756</t>
   </si>
   <si>
-    <t>acaeviedes@uc.cl</t>
-  </si>
-  <si>
     <t>vicente.opazo2005@gmail.com</t>
   </si>
   <si>
@@ -1332,6 +1326,51 @@
   </si>
   <si>
     <t>Rosario Diez</t>
+  </si>
+  <si>
+    <t>Caviedes</t>
+  </si>
+  <si>
+    <t>acaviedes@uc.cl</t>
+  </si>
+  <si>
+    <t>Magdalena</t>
+  </si>
+  <si>
+    <t>Astudillo</t>
+  </si>
+  <si>
+    <t>Nacho Castañeda</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>Tomás O</t>
+  </si>
+  <si>
+    <t>Vaqueria 6926</t>
+  </si>
+  <si>
+    <t>maidastu@gmail.com</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Delorenzo</t>
+  </si>
+  <si>
+    <t>sdelorenzo7@gmail.com</t>
+  </si>
+  <si>
+    <t>Alvaro C.</t>
+  </si>
+  <si>
+    <t>Seba Delorenzo</t>
+  </si>
+  <si>
+    <t>Camino Otonal 1545</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1381,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;+&quot;00\ 0\ 0000\ 0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1401,6 +1440,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1441,7 +1487,7 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1459,6 +1505,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="1" builtinId="26" customBuiltin="1"/>
@@ -1491,8 +1545,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A1:J72" totalsRowShown="0">
-  <autoFilter ref="A1:J72" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A1:J75" totalsRowShown="0">
+  <autoFilter ref="A1:J75" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A2:J72">
     <sortCondition ref="B1:B72"/>
   </sortState>
@@ -1513,8 +1567,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{169E47ED-C1FF-49F2-86BF-3D15DF3F7F76}" name="Tabla1" displayName="Tabla1" ref="A1:D71" totalsRowShown="0">
-  <autoFilter ref="A1:D71" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{169E47ED-C1FF-49F2-86BF-3D15DF3F7F76}" name="Tabla1" displayName="Tabla1" ref="A1:D74" totalsRowShown="0">
+  <autoFilter ref="A1:D74" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
   <sortState ref="A2:B69">
     <sortCondition ref="A1:A69"/>
   </sortState>
@@ -1529,8 +1583,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{32F94098-0187-4D1B-B3A9-AA8AEE6BB44A}" name="Tabla13" displayName="Tabla13" ref="A1:B71" totalsRowShown="0">
-  <autoFilter ref="A1:B71" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{32F94098-0187-4D1B-B3A9-AA8AEE6BB44A}" name="Tabla13" displayName="Tabla13" ref="A1:B74" totalsRowShown="0">
+  <autoFilter ref="A1:B74" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
   <sortState ref="A2:B69">
     <sortCondition ref="A1:A69"/>
   </sortState>
@@ -1842,28 +1896,28 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C81" sqref="C81"/>
+      <selection pane="topRight" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="47" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9" max="10" width="31.7109375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="14.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="31.6640625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1895,7 +1949,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>137</v>
       </c>
@@ -1927,7 +1981,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1959,7 +2013,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>159</v>
       </c>
@@ -1991,7 +2045,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>200</v>
       </c>
@@ -2023,7 +2077,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>185</v>
       </c>
@@ -2055,12 +2109,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>108</v>
@@ -2072,13 +2126,13 @@
         <v>56977051605</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
@@ -2110,15 +2164,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
@@ -2135,14 +2189,14 @@
       <c r="H9" s="4">
         <v>56963033603</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>303</v>
+      <c r="I9" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -2174,7 +2228,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -2206,7 +2260,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>266</v>
       </c>
@@ -2238,7 +2292,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -2267,7 +2321,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>154</v>
       </c>
@@ -2299,7 +2353,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>207</v>
       </c>
@@ -2331,7 +2385,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -2363,7 +2417,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>254</v>
       </c>
@@ -2395,7 +2449,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>259</v>
       </c>
@@ -2427,7 +2481,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>248</v>
       </c>
@@ -2459,7 +2513,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>185</v>
       </c>
@@ -2491,7 +2545,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -2523,15 +2577,15 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>33</v>
@@ -2549,13 +2603,13 @@
         <v>56997267212</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>145</v>
       </c>
@@ -2587,7 +2641,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -2619,7 +2673,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>290</v>
       </c>
@@ -2651,7 +2705,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>278</v>
       </c>
@@ -2683,7 +2737,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>96</v>
       </c>
@@ -2715,7 +2769,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>89</v>
       </c>
@@ -2747,7 +2801,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -2779,7 +2833,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>193</v>
       </c>
@@ -2811,7 +2865,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -2840,7 +2894,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>54</v>
       </c>
@@ -2872,7 +2926,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2904,7 +2958,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>99</v>
       </c>
@@ -2936,7 +2990,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>91</v>
       </c>
@@ -2968,7 +3022,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -3000,7 +3054,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>218</v>
       </c>
@@ -3029,7 +3083,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -3061,7 +3115,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
@@ -3093,7 +3147,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>93</v>
       </c>
@@ -3125,7 +3179,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -3157,7 +3211,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>97</v>
       </c>
@@ -3189,7 +3243,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>189</v>
       </c>
@@ -3221,7 +3275,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>77</v>
       </c>
@@ -3253,7 +3307,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
@@ -3282,7 +3336,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>24</v>
       </c>
@@ -3314,7 +3368,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -3346,7 +3400,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>8</v>
       </c>
@@ -3378,7 +3432,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>211</v>
       </c>
@@ -3410,7 +3464,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>189</v>
       </c>
@@ -3436,13 +3490,13 @@
         <v>56994178481</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J50" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>239</v>
       </c>
@@ -3471,7 +3525,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
@@ -3503,7 +3557,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>90</v>
       </c>
@@ -3535,7 +3589,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>239</v>
       </c>
@@ -3567,7 +3621,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>249</v>
       </c>
@@ -3599,7 +3653,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>6</v>
       </c>
@@ -3631,7 +3685,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>26</v>
       </c>
@@ -3663,7 +3717,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
@@ -3695,7 +3749,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
@@ -3727,7 +3781,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>213</v>
       </c>
@@ -3759,7 +3813,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>11</v>
       </c>
@@ -3791,7 +3845,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>81</v>
       </c>
@@ -3823,7 +3877,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>70</v>
       </c>
@@ -3855,7 +3909,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>276</v>
       </c>
@@ -3887,7 +3941,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
@@ -3919,7 +3973,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>46</v>
       </c>
@@ -3951,7 +4005,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>47</v>
       </c>
@@ -3983,7 +4037,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>77</v>
       </c>
@@ -4015,7 +4069,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>219</v>
       </c>
@@ -4047,7 +4101,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>221</v>
       </c>
@@ -4079,7 +4133,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>159</v>
       </c>
@@ -4111,7 +4165,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
@@ -4138,6 +4192,84 @@
       </c>
       <c r="J72" s="2" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H73" s="4">
+        <v>56975580528</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="11"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H75" s="4">
+        <v>56997792386</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4212,10 +4344,12 @@
     <hyperlink ref="I50" r:id="rId68" xr:uid="{4F5BCC2B-BBB3-4170-B055-3109A3459EA9}"/>
     <hyperlink ref="I22" r:id="rId69" xr:uid="{0EE90BAF-5ECE-4595-BE2A-FC35C76F4B08}"/>
     <hyperlink ref="I7" r:id="rId70" xr:uid="{013F2504-5180-4CC4-865E-A16B6C058759}"/>
+    <hyperlink ref="I73" r:id="rId71" xr:uid="{AD228A1D-0CD5-4963-A2A9-18AE641B05A1}"/>
+    <hyperlink ref="I75" r:id="rId72" xr:uid="{6836092F-1E6B-411F-A413-8D95A2363A2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId71"/>
+    <tablePart r:id="rId73"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4228,582 +4362,582 @@
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>Personas!A2&amp; " " &amp; Personas!B2</f>
         <v>Amalia Abogabir</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>Personas!A3&amp; " " &amp; Personas!B3</f>
         <v>Maida Andrews</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>Personas!A4&amp; " " &amp; Personas!B4</f>
         <v>Gabriel Araneda</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>Personas!A5&amp; " " &amp; Personas!B5</f>
         <v>Martin Araos</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Personas!A6&amp; " " &amp; Personas!B6</f>
         <v>Javi Bernaus</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Personas!A7&amp; " " &amp; Personas!B7</f>
         <v>Samuel Billikopf</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>Personas!A8&amp; " " &amp; Personas!B8</f>
         <v>Paul Brenner</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>Personas!A9&amp; " " &amp; Personas!B9</f>
-        <v>Alvaro Caeviedes</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>Alvaro Caviedes</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>Personas!A10&amp; " " &amp; Personas!B10</f>
         <v>Ignacio Castañeda</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>Personas!A11&amp; " " &amp; Personas!B11</f>
         <v>Majo Castañeda</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>Personas!A12&amp; " " &amp; Personas!B12</f>
         <v>Vicky Chaparro</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>Personas!A13&amp; " " &amp; Personas!B13</f>
         <v>Antonia Cisternas</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>Personas!A14&amp; " " &amp; Personas!B14</f>
         <v>Josefa Covarrubias</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>Personas!A15&amp; " " &amp; Personas!B15</f>
         <v>Florencia Croxatto</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>Personas!A16&amp; " " &amp; Personas!B16</f>
         <v>Joaquin Daly</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>Personas!A17&amp; " " &amp; Personas!B17</f>
         <v>Dominique Daroch</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>Personas!A18&amp; " " &amp; Personas!B18</f>
         <v>Camila De La Sotta</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>Personas!A19&amp; " " &amp; Personas!B19</f>
         <v>Amelia Del Rio</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>Personas!A20&amp; " " &amp; Personas!B20</f>
         <v>Javi Del Rio</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>Personas!A21&amp; " " &amp; Personas!B21</f>
         <v>Constanza Delfau</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>Personas!A22&amp; " " &amp; Personas!B22</f>
         <v>Rosario Diez</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>Personas!A23&amp; " " &amp; Personas!B23</f>
         <v>Pilar Edwards</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>Personas!A24&amp; " " &amp; Personas!B24</f>
         <v>Joaquin Eichholz</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>Personas!A25&amp; " " &amp; Personas!B25</f>
         <v>Maria Jesus Elias</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>Personas!A26&amp; " " &amp; Personas!B26</f>
         <v>Rafael Errazuriz</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>Personas!A27&amp; " " &amp; Personas!B27</f>
         <v>Isidora Fernandez</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>Personas!A28&amp; " " &amp; Personas!B28</f>
         <v>Maria Luisa Fernandez</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>Personas!A29&amp; " " &amp; Personas!B29</f>
         <v>Rodrigo Fernandez</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>Personas!A30&amp; " " &amp; Personas!B30</f>
         <v>Tere Fernandez</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>Personas!A31&amp; " " &amp; Personas!B31</f>
         <v>Diego Figueroa</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>Personas!A32&amp; " " &amp; Personas!B32</f>
         <v>Matias Flores</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>Personas!A33&amp; " " &amp; Personas!B33</f>
         <v>Benjamin Hartmann</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>Personas!A34&amp; " " &amp; Personas!B34</f>
         <v>Mauricio Hernandez</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>Personas!A35&amp; " " &amp; Personas!B35</f>
         <v>Andres Infante</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>Personas!A36&amp; " " &amp; Personas!B36</f>
         <v>Cata Izcue</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>Personas!A37&amp; " " &amp; Personas!B37</f>
         <v>Margarita Joglar</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>Personas!A38&amp; " " &amp; Personas!B38</f>
         <v>Ric Jungk</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>Personas!A39&amp; " " &amp; Personas!B39</f>
         <v>Matias Krumm</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>Personas!A40&amp; " " &amp; Personas!B40</f>
         <v>Juan Diego Lyon</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>Personas!A41&amp; " " &amp; Personas!B41</f>
         <v>Bernardita Mackenney</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>Personas!A42&amp; " " &amp; Personas!B42</f>
         <v>Michella Mascarello</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f>Personas!A43&amp; " " &amp; Personas!B43</f>
         <v>Vicente Mayol</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f>Personas!A44&amp; " " &amp; Personas!B44</f>
         <v>Jesu Mckay</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f>Personas!A45&amp; " " &amp; Personas!B45</f>
         <v>Ignacio Montt</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f>Personas!A46&amp; " " &amp; Personas!B46</f>
         <v>Ignacio Morales</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f>Personas!A47&amp; " " &amp; Personas!B47</f>
         <v>Rodrigo Morales</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>Personas!A48&amp; " " &amp; Personas!B48</f>
         <v>Josefina Nazer</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f>Personas!A49&amp; " " &amp; Personas!B49</f>
         <v>Raimundo Opazo</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f>Personas!A50&amp; " " &amp; Personas!B50</f>
         <v>Vicente Opazo</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f>Personas!A51&amp; " " &amp; Personas!B51</f>
         <v>Trinidad Ossa</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>Personas!A53&amp; " " &amp; Personas!B53</f>
         <v>Francesco Pamparana</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f>Personas!A54&amp; " " &amp; Personas!B54</f>
         <v>Trinidad Pereira</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f>Personas!A55&amp; " " &amp; Personas!B55</f>
         <v>Agustina Pineda</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f>Personas!A56&amp; " " &amp; Personas!B56</f>
         <v>Benjamin Piña</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f>Personas!A57&amp; " " &amp; Personas!B57</f>
         <v>Lukas Quense</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f>Personas!A58&amp; " " &amp; Personas!B58</f>
         <v>Josefina Quiroga</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f>Personas!A59&amp; " " &amp; Personas!B59</f>
         <v>Rafa Quiroga</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f>Personas!A60&amp; " " &amp; Personas!B60</f>
         <v>Barbara Rodriguez</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f>Personas!A61&amp; " " &amp; Personas!B61</f>
         <v>Fede Schilling</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f>Personas!A62&amp; " " &amp; Personas!B62</f>
         <v>Carola Schumann</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f>Personas!A63&amp; " " &amp; Personas!B63</f>
         <v>Cata Tondreau</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f>Personas!A64&amp; " " &amp; Personas!B64</f>
         <v>Iñaki Tramontana</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f>Personas!A65&amp; " " &amp; Personas!B65</f>
         <v>Juan Undurraga</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f>Personas!A66&amp; " " &amp; Personas!B66</f>
         <v>Cristobal Valdes</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f>Personas!A67&amp; " " &amp; Personas!B67</f>
         <v>Antonia Valencia</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f>Personas!A68&amp; " " &amp; Personas!B68</f>
         <v>Jesu Valenzuela</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f>Personas!A69&amp; " " &amp; Personas!B69</f>
         <v>Pablo Vial</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f>Personas!A70&amp; " " &amp; Personas!B70</f>
         <v>Pedro Vial</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f>Personas!A71&amp; " " &amp; Personas!B71</f>
         <v>Gabriel Villela</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f>Personas!A72&amp; " " &amp; Personas!B72</f>
         <v>Paula Villela</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f>Personas!A73&amp; " " &amp; Personas!B73</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+        <v>Magdalena Astudillo</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f>Personas!A74&amp; " " &amp; Personas!B74</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+        <v>Tomas Ovalle</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f>Personas!A75&amp; " " &amp; Personas!B75</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+        <v>Sebastian Delorenzo</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f>Personas!A76&amp; " " &amp; Personas!B76</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f>Personas!A77&amp; " " &amp; Personas!B77</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f>Personas!A78&amp; " " &amp; Personas!B78</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f>Personas!A79&amp; " " &amp; Personas!B79</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f>Personas!A80&amp; " " &amp; Personas!B80</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f>Personas!A81&amp; " " &amp; Personas!B81</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f>Personas!A82&amp; " " &amp; Personas!B82</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f>Personas!A83&amp; " " &amp; Personas!B83</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f>Personas!A84&amp; " " &amp; Personas!B84</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f>Personas!A85&amp; " " &amp; Personas!B85</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f>Personas!A86&amp; " " &amp; Personas!B86</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f>Personas!A87&amp; " " &amp; Personas!B87</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f>Personas!A88&amp; " " &amp; Personas!B88</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f>Personas!A89&amp; " " &amp; Personas!B89</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f>Personas!A90&amp; " " &amp; Personas!B90</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f>Personas!A91&amp; " " &amp; Personas!B91</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f>Personas!A92&amp; " " &amp; Personas!B92</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f>Personas!A93&amp; " " &amp; Personas!B93</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f>Personas!A94&amp; " " &amp; Personas!B94</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f>Personas!A95&amp; " " &amp; Personas!B95</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f>Personas!A96&amp; " " &amp; Personas!B96</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f>Personas!A97&amp; " " &amp; Personas!B97</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f>Personas!A98&amp; " " &amp; Personas!B98</f>
         <v xml:space="preserve"> </v>
@@ -4818,669 +4952,693 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F498B-AB9E-409B-886F-760EBABE5D80}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="31.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C40" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D46" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C61" s="1" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="C70" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="str">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="str">
         <f>Personas!A73&amp; " " &amp; Personas!B73</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="str">
+        <v>Magdalena Astudillo</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="str">
         <f>Personas!A74&amp; " " &amp; Personas!B74</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="str">
+        <v>Tomas Ovalle</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="str">
         <f>Personas!A75&amp; " " &amp; Personas!B75</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="str">
+        <v>Sebastian Delorenzo</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="str">
         <f>Personas!A76&amp; " " &amp; Personas!B76</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="str">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="str">
         <f>Personas!A77&amp; " " &amp; Personas!B77</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="str">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="9" t="str">
         <f>Personas!A78&amp; " " &amp; Personas!B78</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="str">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="str">
         <f>Personas!A79&amp; " " &amp; Personas!B79</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="str">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="str">
         <f>Personas!A80&amp; " " &amp; Personas!B80</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="str">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="str">
         <f>Personas!A81&amp; " " &amp; Personas!B81</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="str">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9" t="str">
         <f>Personas!A82&amp; " " &amp; Personas!B82</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="str">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="str">
         <f>Personas!A83&amp; " " &amp; Personas!B83</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="str">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="str">
         <f>Personas!A84&amp; " " &amp; Personas!B84</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="str">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="str">
         <f>Personas!A85&amp; " " &amp; Personas!B85</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="str">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9" t="str">
         <f>Personas!A86&amp; " " &amp; Personas!B86</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="str">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="str">
         <f>Personas!A87&amp; " " &amp; Personas!B87</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="str">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="str">
         <f>Personas!A88&amp; " " &amp; Personas!B88</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="str">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="str">
         <f>Personas!A89&amp; " " &amp; Personas!B89</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="str">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="str">
         <f>Personas!A90&amp; " " &amp; Personas!B90</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="str">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="str">
         <f>Personas!A91&amp; " " &amp; Personas!B91</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="str">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="str">
         <f>Personas!A92&amp; " " &amp; Personas!B92</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="str">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="str">
         <f>Personas!A93&amp; " " &amp; Personas!B93</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="str">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="str">
         <f>Personas!A94&amp; " " &amp; Personas!B94</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="str">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="str">
         <f>Personas!A95&amp; " " &amp; Personas!B95</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="str">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="9" t="str">
         <f>Personas!A96&amp; " " &amp; Personas!B96</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="str">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="9" t="str">
         <f>Personas!A97&amp; " " &amp; Personas!B97</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="str">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="str">
         <f>Personas!A98&amp; " " &amp; Personas!B98</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -5497,290 +5655,290 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C3DA73-D96C-43A9-AE04-1BEC297F83DB}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.5703125" style="1"/>
+    <col min="3" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="B27" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>235</v>
       </c>
@@ -5788,47 +5946,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>237</v>
       </c>
@@ -5836,397 +5994,397 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="B50" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="str">
         <f>Personas!A73&amp; " " &amp; Personas!B73</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>Magdalena Astudillo</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="str">
         <f>Personas!A74&amp; " " &amp; Personas!B74</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>Tomas Ovalle</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="str">
         <f>Personas!A75&amp; " " &amp; Personas!B75</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>Sebastian Delorenzo</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="str">
         <f>Personas!A76&amp; " " &amp; Personas!B76</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="str">
         <f>Personas!A77&amp; " " &amp; Personas!B77</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="str">
         <f>Personas!A78&amp; " " &amp; Personas!B78</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="str">
         <f>Personas!A79&amp; " " &amp; Personas!B79</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="str">
         <f>Personas!A80&amp; " " &amp; Personas!B80</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="str">
         <f>Personas!A81&amp; " " &amp; Personas!B81</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="str">
         <f>Personas!A82&amp; " " &amp; Personas!B82</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="str">
         <f>Personas!A83&amp; " " &amp; Personas!B83</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="str">
         <f>Personas!A84&amp; " " &amp; Personas!B84</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="str">
         <f>Personas!A85&amp; " " &amp; Personas!B85</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="str">
         <f>Personas!A86&amp; " " &amp; Personas!B86</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="str">
         <f>Personas!A87&amp; " " &amp; Personas!B87</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="str">
         <f>Personas!A88&amp; " " &amp; Personas!B88</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="str">
         <f>Personas!A89&amp; " " &amp; Personas!B89</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="str">
         <f>Personas!A90&amp; " " &amp; Personas!B90</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="str">
         <f>Personas!A91&amp; " " &amp; Personas!B91</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="str">
         <f>Personas!A92&amp; " " &amp; Personas!B92</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="str">
         <f>Personas!A93&amp; " " &amp; Personas!B93</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="str">
         <f>Personas!A94&amp; " " &amp; Personas!B94</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="str">
         <f>Personas!A95&amp; " " &amp; Personas!B95</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="str">
         <f>Personas!A96&amp; " " &amp; Personas!B96</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="str">
         <f>Personas!A97&amp; " " &amp; Personas!B97</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="str">
         <f>Personas!A98&amp; " " &amp; Personas!B98</f>
         <v xml:space="preserve"> </v>

--- a/bot/datos/Jefes 2017-2.xlsx
+++ b/bot/datos/Jefes 2017-2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="446">
   <si>
     <t>Nombre</t>
   </si>
@@ -1898,9 +1898,9 @@
   </sheetPr>
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2541,7 +2541,7 @@
       <c r="I20" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="8" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4238,7 +4238,9 @@
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="7"/>
-      <c r="J74" s="11"/>
+      <c r="J74" s="11" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">

--- a/bot/datos/Jefes 2017-2.xlsx
+++ b/bot/datos/Jefes 2017-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="8592" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="450">
   <si>
     <t>Nombre</t>
   </si>
@@ -962,9 +962,6 @@
     <t>Paul Brenner</t>
   </si>
   <si>
-    <t>Alvaro Caeviedes</t>
-  </si>
-  <si>
     <t>Majo Castañeda</t>
   </si>
   <si>
@@ -1371,6 +1368,21 @@
   </si>
   <si>
     <t>Camino Otonal 1545</t>
+  </si>
+  <si>
+    <t>Alvaro Caviedes</t>
+  </si>
+  <si>
+    <t>Seba</t>
+  </si>
+  <si>
+    <t>Magdalena Astudillo</t>
+  </si>
+  <si>
+    <t>Tomas Ovalle</t>
+  </si>
+  <si>
+    <t>Sebastian Delorenzo</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +1910,7 @@
   </sheetPr>
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J21" sqref="J21"/>
     </sheetView>
@@ -2111,10 +2123,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>108</v>
@@ -2126,7 +2138,7 @@
         <v>56977051605</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>235</v>
@@ -2169,7 +2181,7 @@
         <v>300</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>301</v>
@@ -2190,7 +2202,7 @@
         <v>56963033603</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>235</v>
@@ -2579,13 +2591,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>33</v>
@@ -2603,7 +2615,7 @@
         <v>56997267212</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>237</v>
@@ -4196,13 +4208,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>434</v>
-      </c>
       <c r="C73" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>30</v>
@@ -4220,7 +4232,7 @@
         <v>56975580528</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J73" s="11" t="s">
         <v>235</v>
@@ -4228,7 +4240,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>83</v>
@@ -4244,13 +4256,13 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>441</v>
-      </c>
       <c r="C75" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>33</v>
@@ -4268,7 +4280,7 @@
         <v>56997792386</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J75" s="11" t="s">
         <v>237</v>
@@ -4360,8 +4372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A96"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4954,8 +4966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F498B-AB9E-409B-886F-760EBABE5D80}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4971,21 +4983,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>309</v>
+      <c r="A2" s="8" t="s">
+        <v>445</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4998,27 +5010,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>213</v>
@@ -5026,88 +5038,88 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>381</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>207</v>
@@ -5115,7 +5127,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -5125,7 +5137,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5133,36 +5145,36 @@
         <v>236</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5172,7 +5184,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>185</v>
@@ -5180,15 +5192,15 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>77</v>
@@ -5196,10 +5208,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>50</v>
@@ -5215,36 +5227,36 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>62</v>
@@ -5262,7 +5274,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>44</v>
@@ -5270,26 +5282,26 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>378</v>
-      </c>
       <c r="D46" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -5299,12 +5311,12 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>55</v>
@@ -5312,15 +5324,15 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>97</v>
@@ -5328,7 +5340,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -5336,51 +5348,51 @@
         <v>308</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>21</v>
@@ -5388,123 +5400,120 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B66" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>395</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B68" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>392</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="D70" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="str">
-        <f>Personas!A73&amp; " " &amp; Personas!B73</f>
-        <v>Magdalena Astudillo</v>
+      <c r="A72" s="9" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="str">
-        <f>Personas!A74&amp; " " &amp; Personas!B74</f>
-        <v>Tomas Ovalle</v>
+      <c r="A73" s="9" t="s">
+        <v>448</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="str">
-        <f>Personas!A75&amp; " " &amp; Personas!B75</f>
-        <v>Sebastian Delorenzo</v>
+      <c r="A74" s="9" t="s">
+        <v>449</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -5657,8 +5666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C3DA73-D96C-43A9-AE04-1BEC297F83DB}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5673,12 +5682,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>309</v>
+      <c r="A2" s="8" t="s">
+        <v>445</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>300</v>
@@ -5694,7 +5703,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>248</v>
@@ -5702,7 +5711,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>91</v>
@@ -5710,23 +5719,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>213</v>
@@ -5734,47 +5743,47 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>70</v>
@@ -5782,7 +5791,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>70</v>
@@ -5790,15 +5799,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>46</v>
@@ -5806,7 +5815,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>14</v>
@@ -5814,15 +5823,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>11</v>
@@ -5830,15 +5839,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>90</v>
@@ -5854,7 +5863,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>159</v>
@@ -5865,28 +5874,28 @@
         <v>236</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>276</v>
@@ -5894,10 +5903,10 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -5910,7 +5919,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>185</v>
@@ -5918,7 +5927,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>77</v>
@@ -5926,7 +5935,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>77</v>
@@ -5934,7 +5943,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>19</v>
@@ -5950,31 +5959,31 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>94</v>
@@ -5982,7 +5991,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>62</v>
@@ -6006,7 +6015,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>44</v>
@@ -6014,15 +6023,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>77</v>
@@ -6030,10 +6039,10 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -6046,39 +6055,39 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>219</v>
@@ -6094,7 +6103,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>75</v>
@@ -6102,7 +6111,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>221</v>
@@ -6110,15 +6119,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>64</v>
@@ -6126,15 +6135,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>211</v>
@@ -6142,7 +6151,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>21</v>
@@ -6150,15 +6159,15 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>16</v>
@@ -6166,15 +6175,15 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>193</v>
@@ -6182,39 +6191,39 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>266</v>
@@ -6222,36 +6231,42 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="str">
-        <f>Personas!A73&amp; " " &amp; Personas!B73</f>
-        <v>Magdalena Astudillo</v>
+      <c r="A72" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="str">
-        <f>Personas!A74&amp; " " &amp; Personas!B74</f>
-        <v>Tomas Ovalle</v>
+      <c r="A73" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="str">
-        <f>Personas!A75&amp; " " &amp; Personas!B75</f>
-        <v>Sebastian Delorenzo</v>
+      <c r="A74" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">

--- a/bot/datos/Jefes 2017-2.xlsx
+++ b/bot/datos/Jefes 2017-2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="8592" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="464">
   <si>
     <t>Nombre</t>
   </si>
@@ -1383,6 +1383,48 @@
   </si>
   <si>
     <t>Sebastian Delorenzo</t>
+  </si>
+  <si>
+    <t>Claudio</t>
+  </si>
+  <si>
+    <t>Baldovino</t>
+  </si>
+  <si>
+    <t>Malaga 195 Dpto 51</t>
+  </si>
+  <si>
+    <t>cbaldovino@fen.uchile.cl</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Stuardo</t>
+  </si>
+  <si>
+    <t>Paseo del Loira 4563</t>
+  </si>
+  <si>
+    <t>laurastuardotns@gmail.com</t>
+  </si>
+  <si>
+    <t>C. Baldovino</t>
+  </si>
+  <si>
+    <t>Exequiel</t>
+  </si>
+  <si>
+    <t>Swinburn</t>
+  </si>
+  <si>
+    <t>nnn</t>
+  </si>
+  <si>
+    <t>Seba D</t>
+  </si>
+  <si>
+    <t>Salas</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1541,7 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1524,6 +1566,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1557,8 +1602,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A1:J75" totalsRowShown="0">
-  <autoFilter ref="A1:J75" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A1:J79" totalsRowShown="0">
+  <autoFilter ref="A1:J79" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A2:J72">
     <sortCondition ref="B1:B72"/>
   </sortState>
@@ -1579,8 +1624,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{169E47ED-C1FF-49F2-86BF-3D15DF3F7F76}" name="Tabla1" displayName="Tabla1" ref="A1:D74" totalsRowShown="0">
-  <autoFilter ref="A1:D74" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{169E47ED-C1FF-49F2-86BF-3D15DF3F7F76}" name="Tabla1" displayName="Tabla1" ref="A1:D76" totalsRowShown="0">
+  <autoFilter ref="A1:D76" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
   <sortState ref="A2:B69">
     <sortCondition ref="A1:A69"/>
   </sortState>
@@ -1908,28 +1953,28 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A79" sqref="A79:J79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="47" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="31.6640625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="14.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="10" width="31.7109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1961,7 +2006,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>137</v>
       </c>
@@ -1993,7 +2038,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2025,7 +2070,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>159</v>
       </c>
@@ -2057,7 +2102,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>200</v>
       </c>
@@ -2089,7 +2134,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>185</v>
       </c>
@@ -2121,7 +2166,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>399</v>
       </c>
@@ -2144,7 +2189,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
@@ -2176,7 +2221,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>300</v>
       </c>
@@ -2208,7 +2253,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -2240,7 +2285,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -2272,7 +2317,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>266</v>
       </c>
@@ -2304,7 +2349,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -2333,7 +2378,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>154</v>
       </c>
@@ -2365,7 +2410,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>207</v>
       </c>
@@ -2397,7 +2442,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -2429,7 +2474,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>254</v>
       </c>
@@ -2461,7 +2506,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>259</v>
       </c>
@@ -2493,7 +2538,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>248</v>
       </c>
@@ -2525,7 +2570,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>185</v>
       </c>
@@ -2557,7 +2602,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -2589,7 +2634,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>403</v>
       </c>
@@ -2621,7 +2666,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>145</v>
       </c>
@@ -2653,7 +2698,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -2685,7 +2730,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>290</v>
       </c>
@@ -2717,7 +2762,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>278</v>
       </c>
@@ -2749,7 +2794,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>96</v>
       </c>
@@ -2781,7 +2826,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>89</v>
       </c>
@@ -2813,7 +2858,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -2845,7 +2890,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>193</v>
       </c>
@@ -2877,7 +2922,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -2906,7 +2951,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>54</v>
       </c>
@@ -2938,7 +2983,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2970,7 +3015,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>99</v>
       </c>
@@ -3002,7 +3047,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>91</v>
       </c>
@@ -3034,7 +3079,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -3066,7 +3111,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>218</v>
       </c>
@@ -3095,7 +3140,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -3127,7 +3172,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
@@ -3159,7 +3204,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>93</v>
       </c>
@@ -3191,7 +3236,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -3223,7 +3268,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>97</v>
       </c>
@@ -3255,7 +3300,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>189</v>
       </c>
@@ -3287,7 +3332,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>77</v>
       </c>
@@ -3319,7 +3364,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
@@ -3348,7 +3393,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>24</v>
       </c>
@@ -3380,7 +3425,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -3412,7 +3457,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>8</v>
       </c>
@@ -3444,7 +3489,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>211</v>
       </c>
@@ -3476,7 +3521,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>189</v>
       </c>
@@ -3508,7 +3553,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>239</v>
       </c>
@@ -3537,7 +3582,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
@@ -3569,7 +3614,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>90</v>
       </c>
@@ -3601,7 +3646,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>239</v>
       </c>
@@ -3633,7 +3678,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>249</v>
       </c>
@@ -3665,7 +3710,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>6</v>
       </c>
@@ -3697,7 +3742,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>26</v>
       </c>
@@ -3729,7 +3774,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
@@ -3761,7 +3806,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
@@ -3793,7 +3838,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>213</v>
       </c>
@@ -3825,7 +3870,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>11</v>
       </c>
@@ -3857,7 +3902,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>81</v>
       </c>
@@ -3889,7 +3934,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>70</v>
       </c>
@@ -3921,7 +3966,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>276</v>
       </c>
@@ -3953,7 +3998,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
@@ -3985,7 +4030,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>46</v>
       </c>
@@ -4017,7 +4062,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>47</v>
       </c>
@@ -4049,7 +4094,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>77</v>
       </c>
@@ -4081,7 +4126,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>219</v>
       </c>
@@ -4113,7 +4158,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>221</v>
       </c>
@@ -4145,7 +4190,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>159</v>
       </c>
@@ -4177,7 +4222,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
@@ -4206,7 +4251,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>432</v>
       </c>
@@ -4238,7 +4283,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>435</v>
       </c>
@@ -4254,7 +4299,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>439</v>
       </c>
@@ -4283,6 +4328,98 @@
         <v>441</v>
       </c>
       <c r="J75" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H76" s="4">
+        <v>56994792301</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H77" s="4">
+        <v>56991592586</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4360,10 +4497,12 @@
     <hyperlink ref="I7" r:id="rId70" xr:uid="{013F2504-5180-4CC4-865E-A16B6C058759}"/>
     <hyperlink ref="I73" r:id="rId71" xr:uid="{AD228A1D-0CD5-4963-A2A9-18AE641B05A1}"/>
     <hyperlink ref="I75" r:id="rId72" xr:uid="{6836092F-1E6B-411F-A413-8D95A2363A2F}"/>
+    <hyperlink ref="I76" r:id="rId73" xr:uid="{C15A8649-2B8D-4ACD-A9D1-86A2A5A010A4}"/>
+    <hyperlink ref="I77" r:id="rId74" xr:uid="{D5523386-1E62-4A90-BBAB-A7DC85C12DE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId73"/>
+    <tablePart r:id="rId75"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4376,582 +4515,582 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>Personas!A2&amp; " " &amp; Personas!B2</f>
         <v>Amalia Abogabir</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>Personas!A3&amp; " " &amp; Personas!B3</f>
         <v>Maida Andrews</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>Personas!A4&amp; " " &amp; Personas!B4</f>
         <v>Gabriel Araneda</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>Personas!A5&amp; " " &amp; Personas!B5</f>
         <v>Martin Araos</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Personas!A6&amp; " " &amp; Personas!B6</f>
         <v>Javi Bernaus</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Personas!A7&amp; " " &amp; Personas!B7</f>
         <v>Samuel Billikopf</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Personas!A8&amp; " " &amp; Personas!B8</f>
         <v>Paul Brenner</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>Personas!A9&amp; " " &amp; Personas!B9</f>
         <v>Alvaro Caviedes</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>Personas!A10&amp; " " &amp; Personas!B10</f>
         <v>Ignacio Castañeda</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>Personas!A11&amp; " " &amp; Personas!B11</f>
         <v>Majo Castañeda</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>Personas!A12&amp; " " &amp; Personas!B12</f>
         <v>Vicky Chaparro</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>Personas!A13&amp; " " &amp; Personas!B13</f>
         <v>Antonia Cisternas</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>Personas!A14&amp; " " &amp; Personas!B14</f>
         <v>Josefa Covarrubias</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>Personas!A15&amp; " " &amp; Personas!B15</f>
         <v>Florencia Croxatto</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>Personas!A16&amp; " " &amp; Personas!B16</f>
         <v>Joaquin Daly</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>Personas!A17&amp; " " &amp; Personas!B17</f>
         <v>Dominique Daroch</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>Personas!A18&amp; " " &amp; Personas!B18</f>
         <v>Camila De La Sotta</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>Personas!A19&amp; " " &amp; Personas!B19</f>
         <v>Amelia Del Rio</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>Personas!A20&amp; " " &amp; Personas!B20</f>
         <v>Javi Del Rio</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>Personas!A21&amp; " " &amp; Personas!B21</f>
         <v>Constanza Delfau</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>Personas!A22&amp; " " &amp; Personas!B22</f>
         <v>Rosario Diez</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>Personas!A23&amp; " " &amp; Personas!B23</f>
         <v>Pilar Edwards</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>Personas!A24&amp; " " &amp; Personas!B24</f>
         <v>Joaquin Eichholz</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>Personas!A25&amp; " " &amp; Personas!B25</f>
         <v>Maria Jesus Elias</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>Personas!A26&amp; " " &amp; Personas!B26</f>
         <v>Rafael Errazuriz</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>Personas!A27&amp; " " &amp; Personas!B27</f>
         <v>Isidora Fernandez</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>Personas!A28&amp; " " &amp; Personas!B28</f>
         <v>Maria Luisa Fernandez</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>Personas!A29&amp; " " &amp; Personas!B29</f>
         <v>Rodrigo Fernandez</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>Personas!A30&amp; " " &amp; Personas!B30</f>
         <v>Tere Fernandez</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>Personas!A31&amp; " " &amp; Personas!B31</f>
         <v>Diego Figueroa</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>Personas!A32&amp; " " &amp; Personas!B32</f>
         <v>Matias Flores</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>Personas!A33&amp; " " &amp; Personas!B33</f>
         <v>Benjamin Hartmann</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>Personas!A34&amp; " " &amp; Personas!B34</f>
         <v>Mauricio Hernandez</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>Personas!A35&amp; " " &amp; Personas!B35</f>
         <v>Andres Infante</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>Personas!A36&amp; " " &amp; Personas!B36</f>
         <v>Cata Izcue</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>Personas!A37&amp; " " &amp; Personas!B37</f>
         <v>Margarita Joglar</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>Personas!A38&amp; " " &amp; Personas!B38</f>
         <v>Ric Jungk</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>Personas!A39&amp; " " &amp; Personas!B39</f>
         <v>Matias Krumm</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>Personas!A40&amp; " " &amp; Personas!B40</f>
         <v>Juan Diego Lyon</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>Personas!A41&amp; " " &amp; Personas!B41</f>
         <v>Bernardita Mackenney</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>Personas!A42&amp; " " &amp; Personas!B42</f>
         <v>Michella Mascarello</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>Personas!A43&amp; " " &amp; Personas!B43</f>
         <v>Vicente Mayol</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>Personas!A44&amp; " " &amp; Personas!B44</f>
         <v>Jesu Mckay</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>Personas!A45&amp; " " &amp; Personas!B45</f>
         <v>Ignacio Montt</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>Personas!A46&amp; " " &amp; Personas!B46</f>
         <v>Ignacio Morales</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>Personas!A47&amp; " " &amp; Personas!B47</f>
         <v>Rodrigo Morales</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>Personas!A48&amp; " " &amp; Personas!B48</f>
         <v>Josefina Nazer</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>Personas!A49&amp; " " &amp; Personas!B49</f>
         <v>Raimundo Opazo</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>Personas!A50&amp; " " &amp; Personas!B50</f>
         <v>Vicente Opazo</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>Personas!A51&amp; " " &amp; Personas!B51</f>
         <v>Trinidad Ossa</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>Personas!A53&amp; " " &amp; Personas!B53</f>
         <v>Francesco Pamparana</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>Personas!A54&amp; " " &amp; Personas!B54</f>
         <v>Trinidad Pereira</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>Personas!A55&amp; " " &amp; Personas!B55</f>
         <v>Agustina Pineda</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>Personas!A56&amp; " " &amp; Personas!B56</f>
         <v>Benjamin Piña</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>Personas!A57&amp; " " &amp; Personas!B57</f>
         <v>Lukas Quense</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>Personas!A58&amp; " " &amp; Personas!B58</f>
         <v>Josefina Quiroga</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>Personas!A59&amp; " " &amp; Personas!B59</f>
         <v>Rafa Quiroga</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>Personas!A60&amp; " " &amp; Personas!B60</f>
         <v>Barbara Rodriguez</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>Personas!A61&amp; " " &amp; Personas!B61</f>
         <v>Fede Schilling</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>Personas!A62&amp; " " &amp; Personas!B62</f>
         <v>Carola Schumann</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>Personas!A63&amp; " " &amp; Personas!B63</f>
         <v>Cata Tondreau</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>Personas!A64&amp; " " &amp; Personas!B64</f>
         <v>Iñaki Tramontana</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>Personas!A65&amp; " " &amp; Personas!B65</f>
         <v>Juan Undurraga</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>Personas!A66&amp; " " &amp; Personas!B66</f>
         <v>Cristobal Valdes</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>Personas!A67&amp; " " &amp; Personas!B67</f>
         <v>Antonia Valencia</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>Personas!A68&amp; " " &amp; Personas!B68</f>
         <v>Jesu Valenzuela</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>Personas!A69&amp; " " &amp; Personas!B69</f>
         <v>Pablo Vial</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>Personas!A70&amp; " " &amp; Personas!B70</f>
         <v>Pedro Vial</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>Personas!A71&amp; " " &amp; Personas!B71</f>
         <v>Gabriel Villela</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>Personas!A72&amp; " " &amp; Personas!B72</f>
         <v>Paula Villela</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>Personas!A73&amp; " " &amp; Personas!B73</f>
         <v>Magdalena Astudillo</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>Personas!A74&amp; " " &amp; Personas!B74</f>
         <v>Tomas Ovalle</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>Personas!A75&amp; " " &amp; Personas!B75</f>
         <v>Sebastian Delorenzo</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>Personas!A76&amp; " " &amp; Personas!B76</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+        <v>Claudio Baldovino</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>Personas!A77&amp; " " &amp; Personas!B77</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+        <v>Laura Stuardo</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>Personas!A78&amp; " " &amp; Personas!B78</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+        <v>Exequiel Swinburn</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>Personas!A79&amp; " " &amp; Personas!B79</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+        <v>Trinidad Salas</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>Personas!A80&amp; " " &amp; Personas!B80</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>Personas!A81&amp; " " &amp; Personas!B81</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>Personas!A82&amp; " " &amp; Personas!B82</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>Personas!A83&amp; " " &amp; Personas!B83</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>Personas!A84&amp; " " &amp; Personas!B84</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>Personas!A85&amp; " " &amp; Personas!B85</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>Personas!A86&amp; " " &amp; Personas!B86</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>Personas!A87&amp; " " &amp; Personas!B87</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>Personas!A88&amp; " " &amp; Personas!B88</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>Personas!A89&amp; " " &amp; Personas!B89</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>Personas!A90&amp; " " &amp; Personas!B90</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>Personas!A91&amp; " " &amp; Personas!B91</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f>Personas!A92&amp; " " &amp; Personas!B92</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>Personas!A93&amp; " " &amp; Personas!B93</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>Personas!A94&amp; " " &amp; Personas!B94</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>Personas!A95&amp; " " &amp; Personas!B95</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>Personas!A96&amp; " " &amp; Personas!B96</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>Personas!A97&amp; " " &amp; Personas!B97</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>Personas!A98&amp; " " &amp; Personas!B98</f>
         <v xml:space="preserve"> </v>
@@ -4966,19 +5105,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F498B-AB9E-409B-886F-760EBABE5D80}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="9" customWidth="1"/>
     <col min="2" max="2" width="22" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="11.5546875" style="9"/>
+    <col min="3" max="3" width="21.140625" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="11.5703125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4992,7 +5131,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>445</v>
       </c>
@@ -5000,7 +5139,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>303</v>
       </c>
@@ -5008,27 +5147,27 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>353</v>
       </c>
@@ -5036,17 +5175,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>337</v>
       </c>
@@ -5057,7 +5196,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>316</v>
       </c>
@@ -5068,22 +5207,22 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>319</v>
       </c>
@@ -5094,27 +5233,27 @@
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>313</v>
       </c>
@@ -5125,22 +5264,22 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>236</v>
       </c>
@@ -5148,7 +5287,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>341</v>
       </c>
@@ -5162,27 +5301,27 @@
         <v>387</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>317</v>
       </c>
@@ -5190,12 +5329,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>361</v>
       </c>
@@ -5206,7 +5345,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>314</v>
       </c>
@@ -5217,7 +5356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>235</v>
       </c>
@@ -5225,12 +5364,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>344</v>
       </c>
@@ -5238,7 +5377,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>351</v>
       </c>
@@ -5246,12 +5385,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>358</v>
       </c>
@@ -5262,17 +5401,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>309</v>
       </c>
@@ -5280,17 +5419,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>324</v>
       </c>
@@ -5304,17 +5443,17 @@
         <v>383</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>335</v>
       </c>
@@ -5322,7 +5461,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>330</v>
       </c>
@@ -5330,7 +5469,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>338</v>
       </c>
@@ -5338,12 +5477,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>308</v>
       </c>
@@ -5351,22 +5490,22 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>352</v>
       </c>
@@ -5374,7 +5513,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>322</v>
       </c>
@@ -5382,7 +5521,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>345</v>
       </c>
@@ -5390,7 +5529,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>334</v>
       </c>
@@ -5398,7 +5537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>325</v>
       </c>
@@ -5409,7 +5548,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>342</v>
       </c>
@@ -5417,7 +5556,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>347</v>
       </c>
@@ -5428,7 +5567,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>326</v>
       </c>
@@ -5436,12 +5575,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>349</v>
       </c>
@@ -5451,13 +5590,14 @@
       <c r="C66" s="9" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>366</v>
       </c>
@@ -5468,12 +5608,12 @@
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>401</v>
       </c>
@@ -5487,7 +5627,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>429</v>
       </c>
@@ -5495,12 +5635,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>448</v>
       </c>
@@ -5508,147 +5648,159 @@
         <v>436</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>449</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C74" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="str">
         <f>Personas!A76&amp; " " &amp; Personas!B76</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Claudio Baldovino</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="str">
         <f>Personas!A77&amp; " " &amp; Personas!B77</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Laura Stuardo</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="str">
         <f>Personas!A78&amp; " " &amp; Personas!B78</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Exequiel Swinburn</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="str">
         <f>Personas!A79&amp; " " &amp; Personas!B79</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Trinidad Salas</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="str">
         <f>Personas!A80&amp; " " &amp; Personas!B80</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="str">
         <f>Personas!A81&amp; " " &amp; Personas!B81</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="str">
         <f>Personas!A82&amp; " " &amp; Personas!B82</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="str">
         <f>Personas!A83&amp; " " &amp; Personas!B83</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="str">
         <f>Personas!A84&amp; " " &amp; Personas!B84</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="str">
         <f>Personas!A85&amp; " " &amp; Personas!B85</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="str">
         <f>Personas!A86&amp; " " &amp; Personas!B86</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="str">
         <f>Personas!A87&amp; " " &amp; Personas!B87</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="str">
         <f>Personas!A88&amp; " " &amp; Personas!B88</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="str">
         <f>Personas!A89&amp; " " &amp; Personas!B89</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="str">
         <f>Personas!A90&amp; " " &amp; Personas!B90</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="str">
         <f>Personas!A91&amp; " " &amp; Personas!B91</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="str">
         <f>Personas!A92&amp; " " &amp; Personas!B92</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="str">
         <f>Personas!A93&amp; " " &amp; Personas!B93</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="str">
         <f>Personas!A94&amp; " " &amp; Personas!B94</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="str">
         <f>Personas!A95&amp; " " &amp; Personas!B95</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="str">
         <f>Personas!A96&amp; " " &amp; Personas!B96</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="str">
         <f>Personas!A97&amp; " " &amp; Personas!B97</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="str">
         <f>Personas!A98&amp; " " &amp; Personas!B98</f>
         <v xml:space="preserve"> </v>
@@ -5670,14 +5822,14 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="1"/>
+    <col min="3" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5685,7 +5837,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>445</v>
       </c>
@@ -5693,7 +5845,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>303</v>
       </c>
@@ -5701,7 +5853,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>318</v>
       </c>
@@ -5709,7 +5861,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>331</v>
       </c>
@@ -5717,7 +5869,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>311</v>
       </c>
@@ -5725,7 +5877,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>360</v>
       </c>
@@ -5733,7 +5885,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>353</v>
       </c>
@@ -5741,7 +5893,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>329</v>
       </c>
@@ -5749,7 +5901,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>350</v>
       </c>
@@ -5757,7 +5909,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>337</v>
       </c>
@@ -5765,7 +5917,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>316</v>
       </c>
@@ -5773,7 +5925,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>355</v>
       </c>
@@ -5781,7 +5933,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>332</v>
       </c>
@@ -5789,7 +5941,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>356</v>
       </c>
@@ -5797,7 +5949,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>319</v>
       </c>
@@ -5805,7 +5957,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>359</v>
       </c>
@@ -5813,7 +5965,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>327</v>
       </c>
@@ -5821,7 +5973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>315</v>
       </c>
@@ -5829,7 +5981,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>354</v>
       </c>
@@ -5837,7 +5989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>313</v>
       </c>
@@ -5845,7 +5997,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>348</v>
       </c>
@@ -5853,7 +6005,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>305</v>
       </c>
@@ -5861,7 +6013,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>365</v>
       </c>
@@ -5869,7 +6021,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>236</v>
       </c>
@@ -5877,7 +6029,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>341</v>
       </c>
@@ -5885,7 +6037,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>343</v>
       </c>
@@ -5893,7 +6045,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>357</v>
       </c>
@@ -5901,7 +6053,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>323</v>
       </c>
@@ -5909,7 +6061,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>307</v>
       </c>
@@ -5917,7 +6069,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>317</v>
       </c>
@@ -5925,7 +6077,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>340</v>
       </c>
@@ -5933,7 +6085,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>361</v>
       </c>
@@ -5941,7 +6093,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>314</v>
       </c>
@@ -5949,7 +6101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>235</v>
       </c>
@@ -5957,7 +6109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>312</v>
       </c>
@@ -5965,7 +6117,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>344</v>
       </c>
@@ -5973,7 +6125,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>351</v>
       </c>
@@ -5981,7 +6133,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>336</v>
       </c>
@@ -5989,7 +6141,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>358</v>
       </c>
@@ -5997,7 +6149,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>237</v>
       </c>
@@ -6005,7 +6157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>304</v>
       </c>
@@ -6013,7 +6165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>309</v>
       </c>
@@ -6021,7 +6173,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>333</v>
       </c>
@@ -6029,7 +6181,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>321</v>
       </c>
@@ -6037,7 +6189,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>324</v>
       </c>
@@ -6045,7 +6197,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>306</v>
       </c>
@@ -6053,7 +6205,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>328</v>
       </c>
@@ -6061,7 +6213,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>335</v>
       </c>
@@ -6069,7 +6221,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>330</v>
       </c>
@@ -6077,7 +6229,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>338</v>
       </c>
@@ -6085,7 +6237,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>362</v>
       </c>
@@ -6093,7 +6245,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>308</v>
       </c>
@@ -6101,7 +6253,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>364</v>
       </c>
@@ -6109,7 +6261,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>363</v>
       </c>
@@ -6117,7 +6269,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>320</v>
       </c>
@@ -6125,7 +6277,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>352</v>
       </c>
@@ -6133,7 +6285,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>322</v>
       </c>
@@ -6141,7 +6293,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>345</v>
       </c>
@@ -6149,7 +6301,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>334</v>
       </c>
@@ -6157,7 +6309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>325</v>
       </c>
@@ -6165,7 +6317,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>342</v>
       </c>
@@ -6173,7 +6325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>347</v>
       </c>
@@ -6181,7 +6333,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>326</v>
       </c>
@@ -6189,7 +6341,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>346</v>
       </c>
@@ -6197,7 +6349,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>349</v>
       </c>
@@ -6205,7 +6357,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>339</v>
       </c>
@@ -6213,7 +6365,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>366</v>
       </c>
@@ -6221,7 +6373,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>310</v>
       </c>
@@ -6229,7 +6381,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>401</v>
       </c>
@@ -6237,7 +6389,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>429</v>
       </c>
@@ -6245,7 +6397,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>447</v>
       </c>
@@ -6253,7 +6405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>448</v>
       </c>
@@ -6261,7 +6413,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>449</v>
       </c>
@@ -6269,139 +6421,139 @@
         <v>446</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="str">
         <f>Personas!A76&amp; " " &amp; Personas!B76</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+        <v>Claudio Baldovino</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="str">
         <f>Personas!A77&amp; " " &amp; Personas!B77</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+        <v>Laura Stuardo</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="str">
         <f>Personas!A78&amp; " " &amp; Personas!B78</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+        <v>Exequiel Swinburn</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="str">
         <f>Personas!A79&amp; " " &amp; Personas!B79</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+        <v>Trinidad Salas</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="str">
         <f>Personas!A80&amp; " " &amp; Personas!B80</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="str">
         <f>Personas!A81&amp; " " &amp; Personas!B81</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="str">
         <f>Personas!A82&amp; " " &amp; Personas!B82</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="str">
         <f>Personas!A83&amp; " " &amp; Personas!B83</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="str">
         <f>Personas!A84&amp; " " &amp; Personas!B84</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="str">
         <f>Personas!A85&amp; " " &amp; Personas!B85</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="str">
         <f>Personas!A86&amp; " " &amp; Personas!B86</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="str">
         <f>Personas!A87&amp; " " &amp; Personas!B87</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="str">
         <f>Personas!A88&amp; " " &amp; Personas!B88</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="str">
         <f>Personas!A89&amp; " " &amp; Personas!B89</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="str">
         <f>Personas!A90&amp; " " &amp; Personas!B90</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="str">
         <f>Personas!A91&amp; " " &amp; Personas!B91</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="str">
         <f>Personas!A92&amp; " " &amp; Personas!B92</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="str">
         <f>Personas!A93&amp; " " &amp; Personas!B93</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="str">
         <f>Personas!A94&amp; " " &amp; Personas!B94</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="str">
         <f>Personas!A95&amp; " " &amp; Personas!B95</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="str">
         <f>Personas!A96&amp; " " &amp; Personas!B96</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="str">
         <f>Personas!A97&amp; " " &amp; Personas!B97</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="str">
         <f>Personas!A98&amp; " " &amp; Personas!B98</f>
         <v xml:space="preserve"> </v>

--- a/bot/datos/Jefes 2017-2.xlsx
+++ b/bot/datos/Jefes 2017-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="8595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="486">
   <si>
     <t>Nombre</t>
   </si>
@@ -1425,6 +1425,72 @@
   </si>
   <si>
     <t>Salas</t>
+  </si>
+  <si>
+    <t>El Golf de Manquehue 9750 Casa 703</t>
+  </si>
+  <si>
+    <t>mtsalas1@uc.cl</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Calle Parque 12701</t>
+  </si>
+  <si>
+    <t>robertosalinas10200@gmail.com</t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t>Condominio Chicureo 3</t>
+  </si>
+  <si>
+    <t>tfrs15@hotmail.com</t>
+  </si>
+  <si>
+    <t>Santamaria</t>
+  </si>
+  <si>
+    <t>Arquitecto Sulivan 5949</t>
+  </si>
+  <si>
+    <t>asantamariaw@gmail.com</t>
+  </si>
+  <si>
+    <t>De La Barra</t>
+  </si>
+  <si>
+    <t>Parque Antonio Rabba 6333</t>
+  </si>
+  <si>
+    <t>San Benito</t>
+  </si>
+  <si>
+    <t>isidora.delabarra@gmail.com</t>
+  </si>
+  <si>
+    <t>Juan Pablo</t>
+  </si>
+  <si>
+    <t>Germain</t>
+  </si>
+  <si>
+    <t>JP Germain</t>
+  </si>
+  <si>
+    <t>Sofía Ovalle</t>
+  </si>
+  <si>
+    <t>Tomas R</t>
+  </si>
+  <si>
+    <t>Trini Salas</t>
   </si>
 </sst>
 </file>
@@ -1602,8 +1668,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A1:J79" totalsRowShown="0">
-  <autoFilter ref="A1:J79" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A1:J84" totalsRowShown="0">
+  <autoFilter ref="A1:J84" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A2:J72">
     <sortCondition ref="B1:B72"/>
   </sortState>
@@ -1624,8 +1690,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{169E47ED-C1FF-49F2-86BF-3D15DF3F7F76}" name="Tabla1" displayName="Tabla1" ref="A1:D76" totalsRowShown="0">
-  <autoFilter ref="A1:D76" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{169E47ED-C1FF-49F2-86BF-3D15DF3F7F76}" name="Tabla1" displayName="Tabla1" ref="A1:D83" totalsRowShown="0">
+  <autoFilter ref="A1:D83" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
   <sortState ref="A2:B69">
     <sortCondition ref="A1:A69"/>
   </sortState>
@@ -1640,8 +1706,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{32F94098-0187-4D1B-B3A9-AA8AEE6BB44A}" name="Tabla13" displayName="Tabla13" ref="A1:B74" totalsRowShown="0">
-  <autoFilter ref="A1:B74" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{32F94098-0187-4D1B-B3A9-AA8AEE6BB44A}" name="Tabla13" displayName="Tabla13" ref="A1:B83" totalsRowShown="0">
+  <autoFilter ref="A1:B83" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
   <sortState ref="A2:B69">
     <sortCondition ref="A1:A69"/>
   </sortState>
@@ -1953,11 +2019,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A79" sqref="A79:J79"/>
+      <selection pane="topRight" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4402,6 +4468,7 @@
       <c r="B78" s="8" t="s">
         <v>460</v>
       </c>
+      <c r="H78" s="4"/>
       <c r="I78" s="13" t="s">
         <v>461</v>
       </c>
@@ -4416,11 +4483,169 @@
       <c r="B79" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="I79" s="13" t="s">
-        <v>461</v>
+      <c r="C79" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H79" s="4">
+        <v>56997594184</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>465</v>
       </c>
       <c r="J79" s="11" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H80" s="4">
+        <v>56966082903</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H81" s="4">
+        <v>56979312762</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H82" s="4">
+        <v>56982930856</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H83" s="4">
+        <v>56999194650</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H84" s="4">
+        <v>56966685970</v>
+      </c>
+      <c r="I84" s="7"/>
+      <c r="J84" s="11" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4499,10 +4724,15 @@
     <hyperlink ref="I75" r:id="rId72" xr:uid="{6836092F-1E6B-411F-A413-8D95A2363A2F}"/>
     <hyperlink ref="I76" r:id="rId73" xr:uid="{C15A8649-2B8D-4ACD-A9D1-86A2A5A010A4}"/>
     <hyperlink ref="I77" r:id="rId74" xr:uid="{D5523386-1E62-4A90-BBAB-A7DC85C12DE1}"/>
+    <hyperlink ref="I79" r:id="rId75" xr:uid="{E8497744-9351-4764-94A7-46235159D695}"/>
+    <hyperlink ref="I80" r:id="rId76" xr:uid="{CFCEC9B6-4495-4B22-80AC-B4E265CDFA4C}"/>
+    <hyperlink ref="I81" r:id="rId77" xr:uid="{AD9086F7-6FBB-41D0-8F40-402BB50D4AFB}"/>
+    <hyperlink ref="I82" r:id="rId78" xr:uid="{D8317196-75A7-44E1-B30B-AE33391B2342}"/>
+    <hyperlink ref="I83" r:id="rId79" xr:uid="{D6A38FEA-A713-47AE-B94A-6B74B4AE6B7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId75"/>
+    <tablePart r:id="rId80"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4511,7 +4741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A96"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -4985,31 +5215,31 @@
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>Personas!A80&amp; " " &amp; Personas!B80</f>
-        <v xml:space="preserve"> </v>
+        <v>Roberto Salinas</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>Personas!A81&amp; " " &amp; Personas!B81</f>
-        <v xml:space="preserve"> </v>
+        <v>Tomas Rojas</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>Personas!A82&amp; " " &amp; Personas!B82</f>
-        <v xml:space="preserve"> </v>
+        <v>Andres Santamaria</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>Personas!A83&amp; " " &amp; Personas!B83</f>
-        <v xml:space="preserve"> </v>
+        <v>Isidora De La Barra</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>Personas!A84&amp; " " &amp; Personas!B84</f>
-        <v xml:space="preserve"> </v>
+        <v>Juan Pablo Germain</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -5105,7 +5335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F498B-AB9E-409B-886F-760EBABE5D80}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -5453,7 +5683,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>335</v>
       </c>
@@ -5461,7 +5691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>330</v>
       </c>
@@ -5469,7 +5699,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>338</v>
       </c>
@@ -5477,12 +5707,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>308</v>
       </c>
@@ -5490,22 +5720,22 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>352</v>
       </c>
@@ -5513,7 +5743,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>322</v>
       </c>
@@ -5521,7 +5751,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>345</v>
       </c>
@@ -5529,7 +5759,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>334</v>
       </c>
@@ -5537,7 +5767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>325</v>
       </c>
@@ -5548,7 +5778,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>342</v>
       </c>
@@ -5556,7 +5786,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>347</v>
       </c>
@@ -5566,8 +5796,11 @@
       <c r="C63" s="9" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>326</v>
       </c>
@@ -5689,112 +5922,118 @@
         <v>Trinidad Salas</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="str">
         <f>Personas!A80&amp; " " &amp; Personas!B80</f>
-        <v xml:space="preserve"> </v>
+        <v>Roberto Salinas</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="str">
         <f>Personas!A81&amp; " " &amp; Personas!B81</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+        <v>Tomas Rojas</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="str">
         <f>Personas!A82&amp; " " &amp; Personas!B82</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+        <v>Andres Santamaria</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="str">
         <f>Personas!A83&amp; " " &amp; Personas!B83</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+        <v>Isidora De La Barra</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="str">
         <f>Personas!A84&amp; " " &amp; Personas!B84</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+        <v>Juan Pablo Germain</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="str">
         <f>Personas!A85&amp; " " &amp; Personas!B85</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="str">
         <f>Personas!A86&amp; " " &amp; Personas!B86</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="str">
         <f>Personas!A87&amp; " " &amp; Personas!B87</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="str">
         <f>Personas!A88&amp; " " &amp; Personas!B88</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="str">
         <f>Personas!A89&amp; " " &amp; Personas!B89</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="str">
         <f>Personas!A90&amp; " " &amp; Personas!B90</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="str">
         <f>Personas!A91&amp; " " &amp; Personas!B91</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="str">
         <f>Personas!A92&amp; " " &amp; Personas!B92</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="str">
         <f>Personas!A93&amp; " " &amp; Personas!B93</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="str">
         <f>Personas!A94&amp; " " &amp; Personas!B94</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="str">
         <f>Personas!A95&amp; " " &amp; Personas!B95</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="str">
         <f>Personas!A96&amp; " " &amp; Personas!B96</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="str">
         <f>Personas!A97&amp; " " &amp; Personas!B97</f>
         <v xml:space="preserve"> </v>
@@ -5819,7 +6058,7 @@
   <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6426,128 +6665,152 @@
         <f>Personas!A76&amp; " " &amp; Personas!B76</f>
         <v>Claudio Baldovino</v>
       </c>
+      <c r="B75" s="8" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="str">
         <f>Personas!A77&amp; " " &amp; Personas!B77</f>
         <v>Laura Stuardo</v>
       </c>
+      <c r="B76" s="8" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="str">
         <f>Personas!A78&amp; " " &amp; Personas!B78</f>
         <v>Exequiel Swinburn</v>
       </c>
+      <c r="B77" s="8" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="str">
         <f>Personas!A79&amp; " " &amp; Personas!B79</f>
         <v>Trinidad Salas</v>
       </c>
+      <c r="B78" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="str">
         <f>Personas!A80&amp; " " &amp; Personas!B80</f>
-        <v xml:space="preserve"> </v>
+        <v>Roberto Salinas</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="str">
         <f>Personas!A81&amp; " " &amp; Personas!B81</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+        <v>Tomas Rojas</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="str">
         <f>Personas!A82&amp; " " &amp; Personas!B82</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+        <v>Andres Santamaria</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="str">
         <f>Personas!A83&amp; " " &amp; Personas!B83</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+        <v>Isidora De La Barra</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="str">
         <f>Personas!A84&amp; " " &amp; Personas!B84</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+        <v>Juan Pablo Germain</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="str">
         <f>Personas!A85&amp; " " &amp; Personas!B85</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="str">
         <f>Personas!A86&amp; " " &amp; Personas!B86</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="str">
         <f>Personas!A87&amp; " " &amp; Personas!B87</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="str">
         <f>Personas!A88&amp; " " &amp; Personas!B88</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="str">
         <f>Personas!A89&amp; " " &amp; Personas!B89</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="str">
         <f>Personas!A90&amp; " " &amp; Personas!B90</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="str">
         <f>Personas!A91&amp; " " &amp; Personas!B91</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="str">
         <f>Personas!A92&amp; " " &amp; Personas!B92</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="str">
         <f>Personas!A93&amp; " " &amp; Personas!B93</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="str">
         <f>Personas!A94&amp; " " &amp; Personas!B94</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="str">
         <f>Personas!A95&amp; " " &amp; Personas!B95</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="str">
         <f>Personas!A96&amp; " " &amp; Personas!B96</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="str">
         <f>Personas!A97&amp; " " &amp; Personas!B97</f>
         <v xml:space="preserve"> </v>

--- a/bot/datos/Jefes 2017-2.xlsx
+++ b/bot/datos/Jefes 2017-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="8595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Apodos" sheetId="4" r:id="rId3"/>
     <sheet name="Apodos Cobranza" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="489">
   <si>
     <t>Nombre</t>
   </si>
@@ -1418,9 +1418,6 @@
     <t>Swinburn</t>
   </si>
   <si>
-    <t>nnn</t>
-  </si>
-  <si>
     <t>Seba D</t>
   </si>
   <si>
@@ -1491,6 +1488,18 @@
   </si>
   <si>
     <t>Trini Salas</t>
+  </si>
+  <si>
+    <t>exequielswinburn@gmail.com</t>
+  </si>
+  <si>
+    <t>Av La Dehesa 4510 Casa 10</t>
+  </si>
+  <si>
+    <t>Santa Veronica 1035</t>
+  </si>
+  <si>
+    <t>jpgermain17@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1616,7 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1632,9 +1641,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2021,9 +2027,9 @@
   </sheetPr>
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C102" sqref="C102"/>
+      <selection pane="topRight" activeCell="A84" sqref="A84:J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3519,8 +3525,8 @@
       <c r="I47" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>236</v>
+      <c r="J47" s="8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -4468,9 +4474,26 @@
       <c r="B78" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="H78" s="4"/>
-      <c r="I78" s="13" t="s">
-        <v>461</v>
+      <c r="C78" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H78" s="4">
+        <v>56992704205</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>485</v>
       </c>
       <c r="J78" s="11" t="s">
         <v>236</v>
@@ -4481,10 +4504,10 @@
         <v>239</v>
       </c>
       <c r="B79" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>463</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>464</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>27</v>
@@ -4502,7 +4525,7 @@
         <v>56997594184</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J79" s="11" t="s">
         <v>237</v>
@@ -4510,13 +4533,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>467</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>468</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>27</v>
@@ -4531,7 +4554,7 @@
         <v>56966082903</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J80" s="11" t="s">
         <v>236</v>
@@ -4542,10 +4565,10 @@
         <v>435</v>
       </c>
       <c r="B81" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>470</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>471</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>36</v>
@@ -4563,7 +4586,7 @@
         <v>56979312762</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J81" s="11" t="s">
         <v>237</v>
@@ -4574,10 +4597,10 @@
         <v>91</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>473</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>474</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>30</v>
@@ -4592,7 +4615,7 @@
         <v>56982930856</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J82" s="11" t="s">
         <v>235</v>
@@ -4603,10 +4626,10 @@
         <v>96</v>
       </c>
       <c r="B83" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>476</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>477</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>30</v>
@@ -4615,7 +4638,7 @@
         <v>32</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G83" s="12" t="s">
         <v>43</v>
@@ -4624,7 +4647,7 @@
         <v>56999194650</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J83" s="11" t="s">
         <v>235</v>
@@ -4632,10 +4655,22 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>481</v>
+      <c r="C84" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="G84" s="12" t="s">
         <v>43</v>
@@ -4643,7 +4678,9 @@
       <c r="H84" s="4">
         <v>56966685970</v>
       </c>
-      <c r="I84" s="7"/>
+      <c r="I84" s="10" t="s">
+        <v>488</v>
+      </c>
       <c r="J84" s="11" t="s">
         <v>235</v>
       </c>
@@ -4729,10 +4766,12 @@
     <hyperlink ref="I81" r:id="rId77" xr:uid="{AD9086F7-6FBB-41D0-8F40-402BB50D4AFB}"/>
     <hyperlink ref="I82" r:id="rId78" xr:uid="{D8317196-75A7-44E1-B30B-AE33391B2342}"/>
     <hyperlink ref="I83" r:id="rId79" xr:uid="{D6A38FEA-A713-47AE-B94A-6B74B4AE6B7F}"/>
+    <hyperlink ref="I78" r:id="rId80" xr:uid="{D1AFF523-2F0F-4E55-91B7-A5281E4F6EE2}"/>
+    <hyperlink ref="I84" r:id="rId81" xr:uid="{81A97AF9-70BC-4003-977B-BF36572B9A68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId80"/>
+    <tablePart r:id="rId82"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5335,7 +5374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F498B-AB9E-409B-886F-760EBABE5D80}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -5797,7 +5836,7 @@
         <v>379</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -5889,7 +5928,7 @@
         <v>443</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -5922,7 +5961,7 @@
         <v>Trinidad Salas</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -5937,7 +5976,7 @@
         <v>Tomas Rojas</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -5958,7 +5997,7 @@
         <v>Juan Pablo Germain</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -6702,7 +6741,7 @@
         <v>Roberto Salinas</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">

--- a/bot/datos/Jefes 2017-2.xlsx
+++ b/bot/datos/Jefes 2017-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="511">
   <si>
     <t>Nombre</t>
   </si>
@@ -1463,9 +1463,6 @@
     <t>De La Barra</t>
   </si>
   <si>
-    <t>Parque Antonio Rabba 6333</t>
-  </si>
-  <si>
     <t>San Benito</t>
   </si>
   <si>
@@ -1500,6 +1497,75 @@
   </si>
   <si>
     <t>jpgermain17@gmail.com</t>
+  </si>
+  <si>
+    <t>C. Valdés</t>
+  </si>
+  <si>
+    <t>C.Valdés</t>
+  </si>
+  <si>
+    <t>Muschen</t>
+  </si>
+  <si>
+    <t>nnn</t>
+  </si>
+  <si>
+    <t>M. Muschen</t>
+  </si>
+  <si>
+    <t>Pia</t>
+  </si>
+  <si>
+    <t>J P Germain</t>
+  </si>
+  <si>
+    <t>Camino Mirasol 2569</t>
+  </si>
+  <si>
+    <t>Parque Antonio Rabbat 6333</t>
+  </si>
+  <si>
+    <t>Gino</t>
+  </si>
+  <si>
+    <t>Genova</t>
+  </si>
+  <si>
+    <t>Badia</t>
+  </si>
+  <si>
+    <t>Isi Badia</t>
+  </si>
+  <si>
+    <t>Isi Badía</t>
+  </si>
+  <si>
+    <t>I.badia</t>
+  </si>
+  <si>
+    <t>Ibadia</t>
+  </si>
+  <si>
+    <t>Apodo 4</t>
+  </si>
+  <si>
+    <t>Jp Germain</t>
+  </si>
+  <si>
+    <t>Pía Rodríguez</t>
+  </si>
+  <si>
+    <t>Av Golf Lomas de La Dehesa 11755</t>
+  </si>
+  <si>
+    <t>isidorabadiaw@gmail.com</t>
+  </si>
+  <si>
+    <t>Las Condesas 2035</t>
+  </si>
+  <si>
+    <t>matimuschen@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1716,25 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1674,8 +1758,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A1:J84" totalsRowShown="0">
-  <autoFilter ref="A1:J84" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A1:J88" totalsRowShown="0">
+  <autoFilter ref="A1:J88" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A2:J72">
     <sortCondition ref="B1:B72"/>
   </sortState>
@@ -1686,9 +1770,9 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Comuna"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sector"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Universidad"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cargo" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Telefono" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Mail" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cargo" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Telefono" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Mail" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Encargado" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1696,16 +1780,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{169E47ED-C1FF-49F2-86BF-3D15DF3F7F76}" name="Tabla1" displayName="Tabla1" ref="A1:D83" totalsRowShown="0">
-  <autoFilter ref="A1:D83" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{169E47ED-C1FF-49F2-86BF-3D15DF3F7F76}" name="Tabla1" displayName="Tabla1" ref="A1:E87" totalsRowShown="0">
+  <autoFilter ref="A1:E87" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
   <sortState ref="A2:B69">
     <sortCondition ref="A1:A69"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{14982D57-FEB0-4583-A17A-0177B3E09872}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{12231FA2-2E32-49FD-9BAC-EB898F75B835}" name="Apodo 1"/>
     <tableColumn id="3" xr3:uid="{AB4A1195-9136-4CAB-8788-DA0BEB1CD29D}" name="Apodo 2"/>
     <tableColumn id="4" xr3:uid="{E5EA54C7-5BAF-44E7-B83E-7C69F9B9DE95}" name="Apodo 3"/>
+    <tableColumn id="5" xr3:uid="{69576FA5-55A3-4782-8611-80748D18C7C1}" name="Apodo 4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2025,11 +2110,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A84" sqref="A84:J84"/>
+      <selection pane="topRight" activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4475,7 +4560,7 @@
         <v>460</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>27</v>
@@ -4493,7 +4578,7 @@
         <v>56992704205</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J78" s="11" t="s">
         <v>236</v>
@@ -4629,7 +4714,7 @@
         <v>475</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>30</v>
@@ -4638,7 +4723,7 @@
         <v>32</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G83" s="12" t="s">
         <v>43</v>
@@ -4647,7 +4732,7 @@
         <v>56999194650</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J83" s="11" t="s">
         <v>235</v>
@@ -4655,13 +4740,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>480</v>
-      </c>
       <c r="C84" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>33</v>
@@ -4679,10 +4764,110 @@
         <v>56966685970</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J84" s="11" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="I86" s="7"/>
+      <c r="J86" s="11"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="11"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88" s="4">
+        <v>56976994719</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4768,10 +4953,12 @@
     <hyperlink ref="I83" r:id="rId79" xr:uid="{D6A38FEA-A713-47AE-B94A-6B74B4AE6B7F}"/>
     <hyperlink ref="I78" r:id="rId80" xr:uid="{D1AFF523-2F0F-4E55-91B7-A5281E4F6EE2}"/>
     <hyperlink ref="I84" r:id="rId81" xr:uid="{81A97AF9-70BC-4003-977B-BF36572B9A68}"/>
+    <hyperlink ref="I88" r:id="rId82" xr:uid="{563083A1-FD26-4956-ADB0-019A9E4FFE55}"/>
+    <hyperlink ref="I85" r:id="rId83" xr:uid="{86901896-48EF-4FDA-86F9-63639684AC61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId82"/>
+    <tablePart r:id="rId84"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5284,25 +5471,25 @@
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>Personas!A85&amp; " " &amp; Personas!B85</f>
-        <v xml:space="preserve"> </v>
+        <v>Matias Muschen</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>Personas!A86&amp; " " &amp; Personas!B86</f>
-        <v xml:space="preserve"> </v>
+        <v>Pia Rodriguez</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>Personas!A87&amp; " " &amp; Personas!B87</f>
-        <v xml:space="preserve"> </v>
+        <v>Gino Genova</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>Personas!A88&amp; " " &amp; Personas!B88</f>
-        <v xml:space="preserve"> </v>
+        <v>Isidora Badia</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -5372,10 +5559,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F498B-AB9E-409B-886F-760EBABE5D80}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5386,7 +5573,7 @@
     <col min="4" max="16384" width="11.5703125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5399,8 +5586,11 @@
       <c r="D1" s="9" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>445</v>
       </c>
@@ -5408,7 +5598,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>303</v>
       </c>
@@ -5416,27 +5606,27 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>353</v>
       </c>
@@ -5444,17 +5634,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>337</v>
       </c>
@@ -5465,7 +5655,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>316</v>
       </c>
@@ -5476,22 +5666,22 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>319</v>
       </c>
@@ -5506,6 +5696,12 @@
       <c r="A17" s="9" t="s">
         <v>359</v>
       </c>
+      <c r="B17" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -5836,7 +6032,7 @@
         <v>379</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -5961,7 +6157,7 @@
         <v>Trinidad Salas</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -5976,103 +6172,130 @@
         <v>Tomas Rojas</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="str">
         <f>Personas!A82&amp; " " &amp; Personas!B82</f>
         <v>Andres Santamaria</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="str">
         <f>Personas!A83&amp; " " &amp; Personas!B83</f>
         <v>Isidora De La Barra</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="str">
         <f>Personas!A84&amp; " " &amp; Personas!B84</f>
         <v>Juan Pablo Germain</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="str">
         <f>Personas!A85&amp; " " &amp; Personas!B85</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>Matias Muschen</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="str">
         <f>Personas!A86&amp; " " &amp; Personas!B86</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>Pia Rodriguez</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="str">
         <f>Personas!A87&amp; " " &amp; Personas!B87</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>Gino Genova</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="str">
         <f>Personas!A88&amp; " " &amp; Personas!B88</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>Isidora Badia</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="str">
         <f>Personas!A89&amp; " " &amp; Personas!B89</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="str">
         <f>Personas!A90&amp; " " &amp; Personas!B90</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="str">
         <f>Personas!A91&amp; " " &amp; Personas!B91</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="str">
         <f>Personas!A92&amp; " " &amp; Personas!B92</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="str">
         <f>Personas!A93&amp; " " &amp; Personas!B93</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="str">
         <f>Personas!A94&amp; " " &amp; Personas!B94</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="str">
         <f>Personas!A95&amp; " " &amp; Personas!B95</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="str">
         <f>Personas!A96&amp; " " &amp; Personas!B96</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="str">
         <f>Personas!A97&amp; " " &amp; Personas!B97</f>
         <v xml:space="preserve"> </v>
@@ -6780,25 +7003,25 @@
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="str">
         <f>Personas!A85&amp; " " &amp; Personas!B85</f>
-        <v xml:space="preserve"> </v>
+        <v>Matias Muschen</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="str">
         <f>Personas!A86&amp; " " &amp; Personas!B86</f>
-        <v xml:space="preserve"> </v>
+        <v>Pia Rodriguez</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="str">
         <f>Personas!A87&amp; " " &amp; Personas!B87</f>
-        <v xml:space="preserve"> </v>
+        <v>Gino Genova</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="str">
         <f>Personas!A88&amp; " " &amp; Personas!B88</f>
-        <v xml:space="preserve"> </v>
+        <v>Isidora Badia</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">

--- a/bot/datos/Jefes 2017-2.xlsx
+++ b/bot/datos/Jefes 2017-2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="520">
   <si>
     <t>Nombre</t>
   </si>
@@ -1508,9 +1508,6 @@
     <t>Muschen</t>
   </si>
   <si>
-    <t>nnn</t>
-  </si>
-  <si>
     <t>M. Muschen</t>
   </si>
   <si>
@@ -1566,6 +1563,36 @@
   </si>
   <si>
     <t>matimuschen@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pia </t>
+  </si>
+  <si>
+    <t>I Badia</t>
+  </si>
+  <si>
+    <t>Apodo 5</t>
+  </si>
+  <si>
+    <t>Pia Rodríguez</t>
+  </si>
+  <si>
+    <t>Rai</t>
+  </si>
+  <si>
+    <t>Tati</t>
+  </si>
+  <si>
+    <t>Von Storch</t>
+  </si>
+  <si>
+    <t>tevonstorch@uc.cl</t>
+  </si>
+  <si>
+    <t>piarodriguez24@gmail.com</t>
+  </si>
+  <si>
+    <t>Carlos Pena Otaegui 11472</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1743,25 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1758,8 +1803,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A1:J88" totalsRowShown="0">
-  <autoFilter ref="A1:J88" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A1:J89" totalsRowShown="0">
+  <autoFilter ref="A1:J89" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A2:J72">
     <sortCondition ref="B1:B72"/>
   </sortState>
@@ -1770,9 +1815,9 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Comuna"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sector"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Universidad"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cargo" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Telefono" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Mail" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cargo" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Telefono" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Mail" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Encargado" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1780,25 +1825,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{169E47ED-C1FF-49F2-86BF-3D15DF3F7F76}" name="Tabla1" displayName="Tabla1" ref="A1:E87" totalsRowShown="0">
-  <autoFilter ref="A1:E87" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{169E47ED-C1FF-49F2-86BF-3D15DF3F7F76}" name="Tabla1" displayName="Tabla1" ref="A1:F88" totalsRowShown="0">
+  <autoFilter ref="A1:F88" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
   <sortState ref="A2:B69">
     <sortCondition ref="A1:A69"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{14982D57-FEB0-4583-A17A-0177B3E09872}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{12231FA2-2E32-49FD-9BAC-EB898F75B835}" name="Apodo 1"/>
     <tableColumn id="3" xr3:uid="{AB4A1195-9136-4CAB-8788-DA0BEB1CD29D}" name="Apodo 2"/>
     <tableColumn id="4" xr3:uid="{E5EA54C7-5BAF-44E7-B83E-7C69F9B9DE95}" name="Apodo 3"/>
-    <tableColumn id="5" xr3:uid="{69576FA5-55A3-4782-8611-80748D18C7C1}" name="Apodo 4" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{69576FA5-55A3-4782-8611-80748D18C7C1}" name="Apodo 4" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{AE3994A6-2528-4792-A759-5EC5B12123F4}" name="Apodo 5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{32F94098-0187-4D1B-B3A9-AA8AEE6BB44A}" name="Tabla13" displayName="Tabla13" ref="A1:B83" totalsRowShown="0">
-  <autoFilter ref="A1:B83" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{32F94098-0187-4D1B-B3A9-AA8AEE6BB44A}" name="Tabla13" displayName="Tabla13" ref="A1:B88" totalsRowShown="0">
+  <autoFilter ref="A1:B88" xr:uid="{EAF8484D-D069-4161-AFF5-4B5973F2023D}"/>
   <sortState ref="A2:B69">
     <sortCondition ref="A1:A69"/>
   </sortState>
@@ -2110,11 +2156,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I86" sqref="I86"/>
+      <selection pane="topRight" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3642,8 +3688,8 @@
       <c r="I48" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>235</v>
+      <c r="J48" s="8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -4485,7 +4531,7 @@
         <v>441</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -4714,7 +4760,7 @@
         <v>475</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>30</v>
@@ -4778,7 +4824,7 @@
         <v>490</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>33</v>
@@ -4792,11 +4838,11 @@
       <c r="G85" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H85" s="4" t="s">
-        <v>491</v>
+      <c r="H85" s="4">
+        <v>56990163951</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J85" s="11" t="s">
         <v>237</v>
@@ -4804,13 +4850,13 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>214</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>33</v>
@@ -4821,32 +4867,38 @@
       <c r="G86" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="I86" s="7"/>
-      <c r="J86" s="11"/>
+      <c r="H86" s="4">
+        <v>56978945335</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>497</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>498</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="7"/>
-      <c r="J87" s="11"/>
+      <c r="J87" s="11" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>27</v>
@@ -4864,9 +4916,35 @@
         <v>56976994719</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J88" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H89" s="4">
+        <v>56977895588</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4955,10 +5033,12 @@
     <hyperlink ref="I84" r:id="rId81" xr:uid="{81A97AF9-70BC-4003-977B-BF36572B9A68}"/>
     <hyperlink ref="I88" r:id="rId82" xr:uid="{563083A1-FD26-4956-ADB0-019A9E4FFE55}"/>
     <hyperlink ref="I85" r:id="rId83" xr:uid="{86901896-48EF-4FDA-86F9-63639684AC61}"/>
+    <hyperlink ref="I89" r:id="rId84" xr:uid="{6C98C3CA-F99D-489B-B889-8A793C528A3A}"/>
+    <hyperlink ref="I86" r:id="rId85" xr:uid="{7D3F6191-7039-4B47-BFF1-0DE836B9EF8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId84"/>
+    <tablePart r:id="rId86"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4967,7 +5047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A96"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -5495,7 +5575,7 @@
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>Personas!A89&amp; " " &amp; Personas!B89</f>
-        <v xml:space="preserve"> </v>
+        <v>Tati Von Storch</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -5559,10 +5639,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F498B-AB9E-409B-886F-760EBABE5D80}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5573,7 +5653,7 @@
     <col min="4" max="16384" width="11.5703125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5587,10 +5667,13 @@
         <v>384</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>445</v>
       </c>
@@ -5598,7 +5681,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>303</v>
       </c>
@@ -5606,27 +5689,27 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>353</v>
       </c>
@@ -5634,17 +5717,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>337</v>
       </c>
@@ -5655,7 +5738,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>316</v>
       </c>
@@ -5666,22 +5749,22 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>319</v>
       </c>
@@ -6175,19 +6258,19 @@
         <v>482</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="str">
         <f>Personas!A82&amp; " " &amp; Personas!B82</f>
         <v>Andres Santamaria</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="str">
         <f>Personas!A83&amp; " " &amp; Personas!B83</f>
         <v>Isidora De La Barra</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="str">
         <f>Personas!A84&amp; " " &amp; Personas!B84</f>
         <v>Juan Pablo Germain</v>
@@ -6196,106 +6279,117 @@
         <v>480</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="str">
         <f>Personas!A85&amp; " " &amp; Personas!B85</f>
         <v>Matias Muschen</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="str">
         <f>Personas!A86&amp; " " &amp; Personas!B86</f>
         <v>Pia Rodriguez</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="str">
         <f>Personas!A87&amp; " " &amp; Personas!B87</f>
         <v>Gino Genova</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="str">
         <f>Personas!A88&amp; " " &amp; Personas!B88</f>
         <v>Isidora Badia</v>
       </c>
       <c r="B87" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="str">
         <f>Personas!A89&amp; " " &amp; Personas!B89</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>Tati Von Storch</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="str">
         <f>Personas!A90&amp; " " &amp; Personas!B90</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="str">
         <f>Personas!A91&amp; " " &amp; Personas!B91</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="str">
         <f>Personas!A92&amp; " " &amp; Personas!B92</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="str">
         <f>Personas!A93&amp; " " &amp; Personas!B93</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="str">
         <f>Personas!A94&amp; " " &amp; Personas!B94</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="str">
         <f>Personas!A95&amp; " " &amp; Personas!B95</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="str">
         <f>Personas!A96&amp; " " &amp; Personas!B96</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="str">
         <f>Personas!A97&amp; " " &amp; Personas!B97</f>
         <v xml:space="preserve"> </v>
@@ -6319,8 +6413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C3DA73-D96C-43A9-AE04-1BEC297F83DB}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6799,7 +6893,7 @@
         <v>345</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>211</v>
+        <v>514</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -6999,35 +7093,53 @@
         <f>Personas!A84&amp; " " &amp; Personas!B84</f>
         <v>Juan Pablo Germain</v>
       </c>
+      <c r="B83" s="8" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="str">
         <f>Personas!A85&amp; " " &amp; Personas!B85</f>
         <v>Matias Muschen</v>
       </c>
+      <c r="B84" s="8" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="str">
         <f>Personas!A86&amp; " " &amp; Personas!B86</f>
         <v>Pia Rodriguez</v>
       </c>
+      <c r="B85" s="8" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="str">
         <f>Personas!A87&amp; " " &amp; Personas!B87</f>
         <v>Gino Genova</v>
       </c>
+      <c r="B86" s="8" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="str">
         <f>Personas!A88&amp; " " &amp; Personas!B88</f>
         <v>Isidora Badia</v>
       </c>
+      <c r="B87" s="8" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="str">
         <f>Personas!A89&amp; " " &amp; Personas!B89</f>
-        <v xml:space="preserve"> </v>
+        <v>Tati Von Storch</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">

--- a/bot/datos/Jefes 2017-2.xlsx
+++ b/bot/datos/Jefes 2017-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="8520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="521">
   <si>
     <t>Nombre</t>
   </si>
@@ -1593,6 +1593,9 @@
   </si>
   <si>
     <t>Carlos Pena Otaegui 11472</t>
+  </si>
+  <si>
+    <t>Joaquin E</t>
   </si>
 </sst>
 </file>
@@ -2158,7 +2161,7 @@
   </sheetPr>
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C90" sqref="C90"/>
     </sheetView>
@@ -5641,8 +5644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F498B-AB9E-409B-886F-760EBABE5D80}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5911,6 +5914,9 @@
       <c r="B35" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="C35" s="8" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
@@ -6256,6 +6262,9 @@
       </c>
       <c r="B80" s="8" t="s">
         <v>482</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">

--- a/bot/datos/Jefes 2017-2.xlsx
+++ b/bot/datos/Jefes 2017-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="8520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="523">
   <si>
     <t>Nombre</t>
   </si>
@@ -1596,6 +1596,12 @@
   </si>
   <si>
     <t>Joaquin E</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -1806,8 +1812,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A1:J89" totalsRowShown="0">
-  <autoFilter ref="A1:J89" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A1:J90" totalsRowShown="0">
+  <autoFilter ref="A1:J90" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A2:J72">
     <sortCondition ref="B1:B72"/>
   </sortState>
@@ -2159,11 +2165,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C90" sqref="C90"/>
+      <selection pane="topRight" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4950,6 +4956,19 @@
       <c r="J89" s="11" t="s">
         <v>237</v>
       </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="I90" s="7"/>
+      <c r="J90" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5051,7 +5070,7 @@
   <dimension ref="A1:A96"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5584,7 +5603,7 @@
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>Personas!A90&amp; " " &amp; Personas!B90</f>
-        <v xml:space="preserve"> </v>
+        <v>test asd</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
@@ -5644,7 +5663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F498B-AB9E-409B-886F-760EBABE5D80}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
@@ -6359,7 +6378,7 @@
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="str">
         <f>Personas!A90&amp; " " &amp; Personas!B90</f>
-        <v xml:space="preserve"> </v>
+        <v>test asd</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -7154,7 +7173,7 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="str">
         <f>Personas!A90&amp; " " &amp; Personas!B90</f>
-        <v xml:space="preserve"> </v>
+        <v>test asd</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
